--- a/static/Value_Model_Documentation/Shiller_KGV_full.xlsx
+++ b/static/Value_Model_Documentation/Shiller_KGV_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruven\PycharmProjects\InformationSystemDevelopement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruven\PycharmProjects\HelloWorld\ISD22_project_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A910E203-287D-4841-A939-B42F94AE1F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDB71E-3277-4035-BFBE-1ECB123C190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B86FAFE-3F95-4243-8964-0D48B0F112F4}"/>
+    <workbookView xWindow="6045" yWindow="4650" windowWidth="21600" windowHeight="12735" xr2:uid="{4B86FAFE-3F95-4243-8964-0D48B0F112F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
   <si>
     <t>IBM</t>
   </si>
@@ -426,13 +426,16 @@
   </si>
   <si>
     <t>1996-06-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +447,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Inconsolata"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -466,12 +475,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,7 +498,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -783,19 +794,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FDEACF-69AA-4F6D-BEED-094790E4CCF9}">
-  <dimension ref="A1:AD65"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" ht="17.25" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -961,7 +972,7 @@
         <v>26.848642050578359</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1047,7 +1058,7 @@
         <v>26.72361302861388</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -1133,7 +1144,7 @@
         <v>24.5838684385518</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -1219,7 +1230,7 @@
         <v>23.799520814557631</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -1305,7 +1316,7 @@
         <v>23.452827209986619</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -1391,7 +1402,7 @@
         <v>20.771569816564249</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>21.97843901947952</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -1563,7 +1574,7 @@
         <v>23.251423347335042</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -1649,7 +1660,7 @@
         <v>23.69048788586457</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -1735,7 +1746,7 @@
         <v>24.674977424397351</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -1821,7 +1832,7 @@
         <v>23.557138200825111</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1907,7 +1918,7 @@
         <v>21.129814984060761</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -1992,11 +2003,8 @@
       <c r="AB14">
         <v>19.034477758457228</v>
       </c>
-      <c r="AC14">
-        <v>13.34618869381501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -2081,11 +2089,8 @@
       <c r="AB15">
         <v>18.90813532740729</v>
       </c>
-      <c r="AC15">
-        <v>16.147406836521089</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -2170,11 +2175,8 @@
       <c r="AB16">
         <v>20.224868133982589</v>
       </c>
-      <c r="AC16">
-        <v>14.016579426896341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -2259,11 +2261,8 @@
       <c r="AB17">
         <v>20.398366727816729</v>
       </c>
-      <c r="AC17">
-        <v>13.67794756803479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -2348,11 +2347,8 @@
       <c r="AB18">
         <v>17.291599257805991</v>
       </c>
-      <c r="AC18">
-        <v>10.59923684583158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2437,11 +2433,8 @@
       <c r="AB19">
         <v>18.860106779399949</v>
       </c>
-      <c r="AC19">
-        <v>11.56079413621592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2526,11 +2519,8 @@
       <c r="AB20">
         <v>18.60745967745104</v>
       </c>
-      <c r="AC20">
-        <v>13.20094671447195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -2615,11 +2605,8 @@
       <c r="AB21">
         <v>17.1672801227576</v>
       </c>
-      <c r="AC21">
-        <v>12.231860384764561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2704,11 +2691,8 @@
       <c r="AB22">
         <v>17.02542397682004</v>
       </c>
-      <c r="AC22">
-        <v>10.122789992288411</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2716,88 +2700,85 @@
         <v>68</v>
       </c>
       <c r="C23">
-        <v>21.33405843921879</v>
+        <v>20.94556693429314</v>
       </c>
       <c r="D23">
-        <v>16.64033519586404</v>
+        <v>14.755706477758929</v>
       </c>
       <c r="E23">
-        <v>15.41146064781025</v>
+        <v>14.833012761392309</v>
       </c>
       <c r="F23">
-        <v>15.950595447263771</v>
+        <v>13.864319567818731</v>
       </c>
       <c r="G23">
-        <v>36.312933002526151</v>
+        <v>38.707503483501647</v>
       </c>
       <c r="H23">
-        <v>21.11721877580365</v>
+        <v>17.407654015146679</v>
       </c>
       <c r="I23">
-        <v>21.179500065735009</v>
+        <v>17.938298680208529</v>
       </c>
       <c r="J23">
-        <v>13.443865264942421</v>
+        <v>11.98033776705819</v>
       </c>
       <c r="K23">
-        <v>14.34868899328052</v>
+        <v>12.614498628983499</v>
       </c>
       <c r="L23">
-        <v>23.933535080434019</v>
+        <v>23.23197630151374</v>
       </c>
       <c r="M23">
-        <v>21.888382549709469</v>
+        <v>18.050554970489252</v>
       </c>
       <c r="N23">
-        <v>17.865449258497922</v>
+        <v>13.99983385313098</v>
       </c>
       <c r="O23">
-        <v>17.973480280874711</v>
+        <v>14.619139197554841</v>
       </c>
       <c r="P23">
-        <v>18.369160249278789</v>
+        <v>16.64350169331842</v>
       </c>
       <c r="Q23">
-        <v>15.6068892498691</v>
+        <v>15.305979429449129</v>
       </c>
       <c r="R23">
-        <v>9.8963104121072121</v>
+        <v>9.1193141411965915</v>
       </c>
       <c r="S23">
-        <v>31.340975379972889</v>
+        <v>28.071462497369069</v>
       </c>
       <c r="T23">
-        <v>10.47473607810208</v>
+        <v>9.0192256951605447</v>
       </c>
       <c r="U23">
-        <v>14.282966705383901</v>
+        <v>13.97504791954162</v>
       </c>
       <c r="V23">
-        <v>29.755274749625411</v>
+        <v>26.841095609952681</v>
       </c>
       <c r="W23">
-        <v>19.272903058397269</v>
+        <v>18.39357443287636</v>
       </c>
       <c r="X23">
-        <v>12.852424310490751</v>
+        <v>11.95346314915089</v>
       </c>
       <c r="Y23">
-        <v>16.32073583605905</v>
+        <v>15.22733462521281</v>
       </c>
       <c r="Z23">
-        <v>14.30556828418081</v>
+        <v>12.839224580594941</v>
       </c>
       <c r="AA23">
-        <v>16.643291106869</v>
+        <v>16.8074440710663</v>
       </c>
       <c r="AB23">
-        <v>18.46175433835322</v>
-      </c>
-      <c r="AC23">
-        <v>6.9474909520008916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+        <v>16.222458657878359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2805,88 +2786,85 @@
         <v>67</v>
       </c>
       <c r="C24">
-        <v>23.283404142251271</v>
+        <v>21.33405843921879</v>
       </c>
       <c r="D24">
-        <v>17.574933857840801</v>
+        <v>16.64033519586404</v>
       </c>
       <c r="E24">
-        <v>18.315073736832719</v>
+        <v>15.41146064781025</v>
       </c>
       <c r="F24">
-        <v>16.13777024001666</v>
+        <v>15.950595447263771</v>
       </c>
       <c r="G24">
-        <v>47.735549169134643</v>
+        <v>36.312933002526151</v>
       </c>
       <c r="H24">
-        <v>20.91098269336738</v>
+        <v>21.11721877580365</v>
       </c>
       <c r="I24">
-        <v>23.309348355092581</v>
+        <v>21.179500065735009</v>
       </c>
       <c r="J24">
-        <v>12.908465749050819</v>
+        <v>13.443865264942421</v>
       </c>
       <c r="K24">
-        <v>16.0681371764509</v>
+        <v>14.34868899328052</v>
       </c>
       <c r="L24">
-        <v>24.563803828076711</v>
+        <v>23.933535080434019</v>
       </c>
       <c r="M24">
-        <v>24.292066501475219</v>
+        <v>21.888382549709469</v>
       </c>
       <c r="N24">
-        <v>20.932441797542289</v>
+        <v>17.865449258497922</v>
       </c>
       <c r="O24">
-        <v>19.540040347858739</v>
+        <v>17.973480280874711</v>
       </c>
       <c r="P24">
-        <v>20.441029087579221</v>
+        <v>18.369160249278789</v>
       </c>
       <c r="Q24">
-        <v>15.224247382454269</v>
+        <v>15.6068892498691</v>
       </c>
       <c r="R24">
-        <v>13.25036301238864</v>
+        <v>9.8963104121072121</v>
       </c>
       <c r="S24">
-        <v>29.3955613004536</v>
+        <v>31.340975379972889</v>
       </c>
       <c r="T24">
-        <v>10.60213202129821</v>
+        <v>10.47473607810208</v>
       </c>
       <c r="U24">
-        <v>17.20132964082908</v>
+        <v>14.282966705383901</v>
       </c>
       <c r="V24">
-        <v>32.07326623556277</v>
+        <v>29.755274749625411</v>
       </c>
       <c r="W24">
-        <v>18.88712196455819</v>
+        <v>19.272903058397269</v>
       </c>
       <c r="X24">
-        <v>12.37668840247775</v>
+        <v>12.852424310490751</v>
       </c>
       <c r="Y24">
-        <v>18.091233559544222</v>
+        <v>16.32073583605905</v>
       </c>
       <c r="Z24">
-        <v>13.569443586429919</v>
+        <v>14.30556828418081</v>
       </c>
       <c r="AA24">
-        <v>16.288314247009371</v>
+        <v>16.643291106869</v>
       </c>
       <c r="AB24">
-        <v>18.152395437717509</v>
-      </c>
-      <c r="AC24">
-        <v>9.2146123361400001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+        <v>18.46175433835322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -2894,88 +2872,85 @@
         <v>66</v>
       </c>
       <c r="C25">
-        <v>21.228415978070672</v>
+        <v>23.283404142251271</v>
       </c>
       <c r="D25">
-        <v>17.37396275400355</v>
+        <v>17.574933857840801</v>
       </c>
       <c r="E25">
-        <v>18.13239785316258</v>
+        <v>18.315073736832719</v>
       </c>
       <c r="F25">
-        <v>16.76876437858877</v>
+        <v>16.13777024001666</v>
       </c>
       <c r="G25">
-        <v>43.399087982276747</v>
+        <v>47.735549169134643</v>
       </c>
       <c r="H25">
-        <v>20.827004746670141</v>
+        <v>20.91098269336738</v>
       </c>
       <c r="I25">
-        <v>17.73183842438662</v>
+        <v>23.309348355092581</v>
       </c>
       <c r="J25">
-        <v>12.28096244460593</v>
+        <v>12.908465749050819</v>
       </c>
       <c r="K25">
-        <v>12.711629819835091</v>
+        <v>16.0681371764509</v>
       </c>
       <c r="L25">
-        <v>25.470851057928289</v>
+        <v>24.563803828076711</v>
       </c>
       <c r="M25">
-        <v>26.296847638607019</v>
+        <v>24.292066501475219</v>
       </c>
       <c r="N25">
-        <v>21.86573648606478</v>
+        <v>20.932441797542289</v>
       </c>
       <c r="O25">
-        <v>17.606361590355199</v>
+        <v>19.540040347858739</v>
       </c>
       <c r="P25">
-        <v>18.784802203459691</v>
+        <v>20.441029087579221</v>
       </c>
       <c r="Q25">
-        <v>15.39775929270716</v>
+        <v>15.224247382454269</v>
       </c>
       <c r="R25">
-        <v>10.18990774641704</v>
+        <v>13.25036301238864</v>
       </c>
       <c r="S25">
-        <v>25.880351367668471</v>
+        <v>29.3955613004536</v>
       </c>
       <c r="T25">
-        <v>11.4988111667203</v>
+        <v>10.60213202129821</v>
       </c>
       <c r="U25">
-        <v>15.96261890568681</v>
+        <v>17.20132964082908</v>
       </c>
       <c r="V25">
-        <v>25.469554735318098</v>
+        <v>32.07326623556277</v>
       </c>
       <c r="W25">
-        <v>17.045275113720471</v>
+        <v>18.88712196455819</v>
       </c>
       <c r="X25">
-        <v>12.68640174940438</v>
+        <v>12.37668840247775</v>
       </c>
       <c r="Y25">
-        <v>17.440491494609809</v>
+        <v>18.091233559544222</v>
       </c>
       <c r="Z25">
-        <v>15.96152267277049</v>
+        <v>13.569443586429919</v>
       </c>
       <c r="AA25">
-        <v>14.166962265234149</v>
+        <v>16.288314247009371</v>
       </c>
       <c r="AB25">
-        <v>20.29976134649548</v>
-      </c>
-      <c r="AC25">
-        <v>7.0772083000417414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+        <v>18.152395437717509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -2983,88 +2958,85 @@
         <v>65</v>
       </c>
       <c r="C26">
-        <v>21.75225699647812</v>
+        <v>21.228415978070672</v>
       </c>
       <c r="D26">
-        <v>17.512817624987171</v>
+        <v>17.37396275400355</v>
       </c>
       <c r="E26">
-        <v>17.33652851012079</v>
+        <v>18.13239785316258</v>
       </c>
       <c r="F26">
-        <v>18.69768219373378</v>
+        <v>16.76876437858877</v>
       </c>
       <c r="G26">
-        <v>46.184234976648888</v>
+        <v>43.399087982276747</v>
       </c>
       <c r="H26">
-        <v>18.945675990626668</v>
+        <v>20.827004746670141</v>
       </c>
       <c r="I26">
-        <v>17.155910748726459</v>
+        <v>17.73183842438662</v>
       </c>
       <c r="J26">
-        <v>13.17909000020706</v>
+        <v>12.28096244460593</v>
       </c>
       <c r="K26">
-        <v>13.72928292211952</v>
+        <v>12.711629819835091</v>
       </c>
       <c r="L26">
-        <v>24.185295888390449</v>
+        <v>25.470851057928289</v>
       </c>
       <c r="M26">
-        <v>26.961007850720652</v>
+        <v>26.296847638607019</v>
       </c>
       <c r="N26">
-        <v>24.334175133053861</v>
+        <v>21.86573648606478</v>
       </c>
       <c r="O26">
-        <v>18.343538069935001</v>
+        <v>17.606361590355199</v>
       </c>
       <c r="P26">
-        <v>15.367272118584401</v>
+        <v>18.784802203459691</v>
       </c>
       <c r="Q26">
-        <v>15.393172196466891</v>
+        <v>15.39775929270716</v>
       </c>
       <c r="R26">
-        <v>11.040713566284021</v>
+        <v>10.18990774641704</v>
       </c>
       <c r="S26">
-        <v>25.88945443130989</v>
+        <v>25.880351367668471</v>
       </c>
       <c r="T26">
-        <v>12.35602101212287</v>
+        <v>11.4988111667203</v>
       </c>
       <c r="U26">
-        <v>15.264173575564341</v>
+        <v>15.96261890568681</v>
       </c>
       <c r="V26">
-        <v>26.744875609445408</v>
+        <v>25.469554735318098</v>
       </c>
       <c r="W26">
-        <v>18.961276216053371</v>
+        <v>17.045275113720471</v>
       </c>
       <c r="X26">
-        <v>13.051678470356469</v>
+        <v>12.68640174940438</v>
       </c>
       <c r="Y26">
-        <v>15.84654366927524</v>
+        <v>17.440491494609809</v>
       </c>
       <c r="Z26">
-        <v>16.43254285489963</v>
+        <v>15.96152267277049</v>
       </c>
       <c r="AA26">
-        <v>17.12547601197307</v>
+        <v>14.166962265234149</v>
       </c>
       <c r="AB26">
-        <v>20.95053403309274</v>
-      </c>
-      <c r="AC26">
-        <v>8.2282017271509975</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+        <v>20.29976134649548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -3072,88 +3044,85 @@
         <v>64</v>
       </c>
       <c r="C27">
-        <v>19.448868539856861</v>
+        <v>21.75225699647812</v>
       </c>
       <c r="D27">
-        <v>17.536760503934889</v>
+        <v>17.512817624987171</v>
       </c>
       <c r="E27">
-        <v>17.43305786454205</v>
+        <v>17.33652851012079</v>
       </c>
       <c r="F27">
-        <v>18.86858478856146</v>
+        <v>18.69768219373378</v>
       </c>
       <c r="G27">
-        <v>33.870775958388883</v>
+        <v>46.184234976648888</v>
       </c>
       <c r="H27">
-        <v>20.462267110397651</v>
+        <v>18.945675990626668</v>
       </c>
       <c r="I27">
-        <v>17.687830664950951</v>
+        <v>17.155910748726459</v>
       </c>
       <c r="J27">
-        <v>11.963940933118501</v>
+        <v>13.17909000020706</v>
       </c>
       <c r="K27">
-        <v>13.930631827540941</v>
+        <v>13.72928292211952</v>
       </c>
       <c r="L27">
-        <v>23.00587847859034</v>
+        <v>24.185295888390449</v>
       </c>
       <c r="M27">
-        <v>25.17186867918219</v>
+        <v>26.961007850720652</v>
       </c>
       <c r="N27">
-        <v>24.89191360694927</v>
+        <v>24.334175133053861</v>
       </c>
       <c r="O27">
-        <v>19.345799558206</v>
+        <v>18.343538069935001</v>
       </c>
       <c r="P27">
-        <v>13.831994101410061</v>
+        <v>15.367272118584401</v>
       </c>
       <c r="Q27">
-        <v>15.56968694948079</v>
+        <v>15.393172196466891</v>
       </c>
       <c r="R27">
-        <v>11.61476143777741</v>
+        <v>11.040713566284021</v>
       </c>
       <c r="S27">
-        <v>24.350415934474881</v>
+        <v>25.88945443130989</v>
       </c>
       <c r="T27">
-        <v>11.380000558486779</v>
+        <v>12.35602101212287</v>
       </c>
       <c r="U27">
-        <v>13.515985220904669</v>
+        <v>15.264173575564341</v>
       </c>
       <c r="V27">
-        <v>28.683761854162899</v>
+        <v>26.744875609445408</v>
       </c>
       <c r="W27">
-        <v>18.446579454883331</v>
+        <v>18.961276216053371</v>
       </c>
       <c r="X27">
-        <v>13.923042639780491</v>
+        <v>13.051678470356469</v>
       </c>
       <c r="Y27">
-        <v>15.27329892504547</v>
+        <v>15.84654366927524</v>
       </c>
       <c r="Z27">
-        <v>16.048245966375848</v>
+        <v>16.43254285489963</v>
       </c>
       <c r="AA27">
-        <v>17.273695618637319</v>
+        <v>17.12547601197307</v>
       </c>
       <c r="AB27">
-        <v>19.21401546781097</v>
-      </c>
-      <c r="AC27">
-        <v>9.0188626947474102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+        <v>20.95053403309274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -3161,88 +3130,85 @@
         <v>63</v>
       </c>
       <c r="C28">
-        <v>20.923530530661839</v>
+        <v>19.448868539856861</v>
       </c>
       <c r="D28">
-        <v>19.545814183847519</v>
+        <v>17.536760503934889</v>
       </c>
       <c r="E28">
-        <v>19.895247208034469</v>
+        <v>17.43305786454205</v>
       </c>
       <c r="F28">
-        <v>21.470405040115871</v>
+        <v>18.86858478856146</v>
       </c>
       <c r="G28">
-        <v>26.135852843804539</v>
+        <v>33.870775958388883</v>
       </c>
       <c r="H28">
-        <v>22.27740163325214</v>
+        <v>20.462267110397651</v>
       </c>
       <c r="I28">
-        <v>16.587275680104529</v>
+        <v>17.687830664950951</v>
       </c>
       <c r="J28">
-        <v>12.7024946655162</v>
+        <v>11.963940933118501</v>
       </c>
       <c r="K28">
-        <v>14.294582277317071</v>
+        <v>13.930631827540941</v>
       </c>
       <c r="L28">
-        <v>24.971556665281181</v>
+        <v>23.00587847859034</v>
       </c>
       <c r="M28">
-        <v>27.534781209724841</v>
+        <v>25.17186867918219</v>
       </c>
       <c r="N28">
-        <v>27.384474724947879</v>
+        <v>24.89191360694927</v>
       </c>
       <c r="O28">
-        <v>22.092062159108728</v>
+        <v>19.345799558206</v>
       </c>
       <c r="P28">
-        <v>14.240536884552579</v>
+        <v>13.831994101410061</v>
       </c>
       <c r="Q28">
-        <v>17.642052524158451</v>
+        <v>15.56968694948079</v>
       </c>
       <c r="R28">
-        <v>12.13871228552504</v>
+        <v>11.61476143777741</v>
       </c>
       <c r="S28">
-        <v>26.499735468085529</v>
+        <v>24.350415934474881</v>
       </c>
       <c r="T28">
-        <v>12.157719075430951</v>
+        <v>11.380000558486779</v>
       </c>
       <c r="U28">
-        <v>14.01516522429954</v>
+        <v>13.515985220904669</v>
       </c>
       <c r="V28">
-        <v>31.350001782321971</v>
+        <v>28.683761854162899</v>
       </c>
       <c r="W28">
-        <v>20.442786678793599</v>
+        <v>18.446579454883331</v>
       </c>
       <c r="X28">
-        <v>15.73074033902323</v>
+        <v>13.923042639780491</v>
       </c>
       <c r="Y28">
-        <v>15.563453099124279</v>
+        <v>15.27329892504547</v>
       </c>
       <c r="Z28">
-        <v>18.099379095833061</v>
+        <v>16.048245966375848</v>
       </c>
       <c r="AA28">
-        <v>21.45166684545341</v>
+        <v>17.273695618637319</v>
       </c>
       <c r="AB28">
-        <v>20.25124371255059</v>
-      </c>
-      <c r="AC28">
-        <v>10.075266865868709</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+        <v>19.21401546781097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -3250,88 +3216,85 @@
         <v>62</v>
       </c>
       <c r="C29">
-        <v>18.189167662802909</v>
+        <v>20.923530530661839</v>
       </c>
       <c r="D29">
-        <v>19.781293835513559</v>
+        <v>19.545814183847519</v>
       </c>
       <c r="E29">
-        <v>21.648155052989711</v>
+        <v>19.895247208034469</v>
       </c>
       <c r="F29">
-        <v>20.068393721770171</v>
+        <v>21.470405040115871</v>
       </c>
       <c r="G29">
-        <v>22.353725859650471</v>
+        <v>26.135852843804539</v>
       </c>
       <c r="H29">
-        <v>25.211098006707179</v>
+        <v>22.27740163325214</v>
       </c>
       <c r="I29">
-        <v>15.47019807919286</v>
+        <v>16.587275680104529</v>
       </c>
       <c r="J29">
-        <v>12.38192079799839</v>
+        <v>12.7024946655162</v>
       </c>
       <c r="K29">
-        <v>16.24163922731622</v>
+        <v>14.294582277317071</v>
       </c>
       <c r="L29">
-        <v>24.28058782233278</v>
+        <v>24.971556665281181</v>
       </c>
       <c r="M29">
-        <v>29.587581451173399</v>
+        <v>27.534781209724841</v>
       </c>
       <c r="N29">
-        <v>29.915957253049871</v>
+        <v>27.384474724947879</v>
       </c>
       <c r="O29">
-        <v>22.62709988427741</v>
+        <v>22.092062159108728</v>
       </c>
       <c r="P29">
-        <v>15.535330713173691</v>
+        <v>14.240536884552579</v>
       </c>
       <c r="Q29">
-        <v>18.288010825301601</v>
+        <v>17.642052524158451</v>
       </c>
       <c r="R29">
-        <v>13.300732997862241</v>
+        <v>12.13871228552504</v>
       </c>
       <c r="S29">
-        <v>25.61643096799104</v>
+        <v>26.499735468085529</v>
       </c>
       <c r="T29">
-        <v>12.814213926307611</v>
+        <v>12.157719075430951</v>
       </c>
       <c r="U29">
-        <v>16.569641174691579</v>
+        <v>14.01516522429954</v>
       </c>
       <c r="V29">
-        <v>32.926221165438903</v>
+        <v>31.350001782321971</v>
       </c>
       <c r="W29">
-        <v>20.230049871343368</v>
+        <v>20.442786678793599</v>
       </c>
       <c r="X29">
-        <v>14.553402388826511</v>
+        <v>15.73074033902323</v>
       </c>
       <c r="Y29">
-        <v>17.314949834522171</v>
+        <v>15.563453099124279</v>
       </c>
       <c r="Z29">
-        <v>18.579871017113359</v>
+        <v>18.099379095833061</v>
       </c>
       <c r="AA29">
-        <v>19.393961270562961</v>
+        <v>21.45166684545341</v>
       </c>
       <c r="AB29">
-        <v>19.766118323352782</v>
-      </c>
-      <c r="AC29">
-        <v>10.186511710557699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+        <v>20.25124371255059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -3339,88 +3302,85 @@
         <v>61</v>
       </c>
       <c r="C30">
-        <v>17.117299752233059</v>
+        <v>18.189167662802909</v>
       </c>
       <c r="D30">
-        <v>21.26139559133177</v>
+        <v>19.781293835513559</v>
       </c>
       <c r="E30">
-        <v>21.495108870485389</v>
+        <v>21.648155052989711</v>
       </c>
       <c r="F30">
-        <v>22.134726966355501</v>
+        <v>20.068393721770171</v>
       </c>
       <c r="G30">
-        <v>25.669358871560831</v>
+        <v>22.353725859650471</v>
       </c>
       <c r="H30">
-        <v>27.88287526777502</v>
+        <v>25.211098006707179</v>
       </c>
       <c r="I30">
-        <v>15.29510974665212</v>
+        <v>15.47019807919286</v>
       </c>
       <c r="J30">
-        <v>12.49412880635542</v>
+        <v>12.38192079799839</v>
       </c>
       <c r="K30">
-        <v>15.285829026954939</v>
+        <v>16.24163922731622</v>
       </c>
       <c r="L30">
-        <v>22.627089514460259</v>
+        <v>24.28058782233278</v>
       </c>
       <c r="M30">
-        <v>29.05982192197224</v>
+        <v>29.587581451173399</v>
       </c>
       <c r="N30">
-        <v>28.62328953534762</v>
+        <v>29.915957253049871</v>
       </c>
       <c r="O30">
-        <v>23.10943263570076</v>
+        <v>22.62709988427741</v>
       </c>
       <c r="P30">
-        <v>14.41172861534865</v>
+        <v>15.535330713173691</v>
       </c>
       <c r="Q30">
-        <v>18.22516197808914</v>
+        <v>18.288010825301601</v>
       </c>
       <c r="R30">
-        <v>12.847656529921469</v>
+        <v>13.300732997862241</v>
       </c>
       <c r="S30">
-        <v>24.215852302864089</v>
+        <v>25.61643096799104</v>
       </c>
       <c r="T30">
-        <v>13.148260589356109</v>
+        <v>12.814213926307611</v>
       </c>
       <c r="U30">
-        <v>15.739956853342891</v>
+        <v>16.569641174691579</v>
       </c>
       <c r="V30">
-        <v>34.905961268249762</v>
+        <v>32.926221165438903</v>
       </c>
       <c r="W30">
-        <v>19.67676902052947</v>
+        <v>20.230049871343368</v>
       </c>
       <c r="X30">
-        <v>15.082837606626709</v>
+        <v>14.553402388826511</v>
       </c>
       <c r="Y30">
-        <v>18.38113858312143</v>
+        <v>17.314949834522171</v>
       </c>
       <c r="Z30">
-        <v>17.230436723858919</v>
+        <v>18.579871017113359</v>
       </c>
       <c r="AA30">
-        <v>23.147559498851791</v>
+        <v>19.393961270562961</v>
       </c>
       <c r="AB30">
-        <v>19.274290222370041</v>
-      </c>
-      <c r="AC30">
-        <v>10.54017134318708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+        <v>19.766118323352782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -3428,88 +3388,85 @@
         <v>60</v>
       </c>
       <c r="C31">
-        <v>16.742990738116571</v>
+        <v>17.117299752233059</v>
       </c>
       <c r="D31">
-        <v>24.803119835805589</v>
+        <v>21.26139559133177</v>
       </c>
       <c r="E31">
-        <v>25.586709202517941</v>
+        <v>21.495108870485389</v>
       </c>
       <c r="F31">
-        <v>22.12208962829617</v>
+        <v>22.134726966355501</v>
       </c>
       <c r="G31">
-        <v>28.193360192672358</v>
+        <v>25.669358871560831</v>
       </c>
       <c r="H31">
-        <v>31.601977098430059</v>
+        <v>27.88287526777502</v>
       </c>
       <c r="I31">
-        <v>16.441715987261109</v>
+        <v>15.29510974665212</v>
       </c>
       <c r="J31">
-        <v>12.6976527780252</v>
+        <v>12.49412880635542</v>
       </c>
       <c r="K31">
-        <v>14.405032359639399</v>
+        <v>15.285829026954939</v>
       </c>
       <c r="L31">
-        <v>24.543250512627321</v>
+        <v>22.627089514460259</v>
       </c>
       <c r="M31">
-        <v>33.741215923403828</v>
+        <v>29.05982192197224</v>
       </c>
       <c r="N31">
-        <v>30.847437234126051</v>
+        <v>28.62328953534762</v>
       </c>
       <c r="O31">
-        <v>25.072212246970128</v>
+        <v>23.10943263570076</v>
       </c>
       <c r="P31">
-        <v>16.30477941791159</v>
+        <v>14.41172861534865</v>
       </c>
       <c r="Q31">
-        <v>19.136315717939659</v>
+        <v>18.22516197808914</v>
       </c>
       <c r="R31">
-        <v>14.50447328839388</v>
+        <v>12.847656529921469</v>
       </c>
       <c r="S31">
-        <v>23.957463974925549</v>
+        <v>24.215852302864089</v>
       </c>
       <c r="T31">
-        <v>13.846704938472159</v>
+        <v>13.148260589356109</v>
       </c>
       <c r="U31">
-        <v>17.48590196897386</v>
+        <v>15.739956853342891</v>
       </c>
       <c r="V31">
-        <v>36.256148620349713</v>
+        <v>34.905961268249762</v>
       </c>
       <c r="W31">
-        <v>21.077864938142461</v>
+        <v>19.67676902052947</v>
       </c>
       <c r="X31">
-        <v>15.452192130281739</v>
+        <v>15.082837606626709</v>
       </c>
       <c r="Y31">
-        <v>18.98911409650546</v>
+        <v>18.38113858312143</v>
       </c>
       <c r="Z31">
-        <v>18.273835484407531</v>
+        <v>17.230436723858919</v>
       </c>
       <c r="AA31">
-        <v>24.477055251076269</v>
+        <v>23.147559498851791</v>
       </c>
       <c r="AB31">
-        <v>20.30687792322956</v>
-      </c>
-      <c r="AC31">
-        <v>11.69208430026673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+        <v>19.274290222370041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -3517,88 +3474,85 @@
         <v>59</v>
       </c>
       <c r="C32">
-        <v>16.747608700031979</v>
+        <v>16.742990738116571</v>
       </c>
       <c r="D32">
-        <v>23.394658894222999</v>
+        <v>24.803119835805589</v>
       </c>
       <c r="E32">
-        <v>24.698765168917941</v>
+        <v>25.586709202517941</v>
       </c>
       <c r="F32">
-        <v>23.081180976975169</v>
+        <v>22.12208962829617</v>
       </c>
       <c r="G32">
-        <v>25.192556663729398</v>
+        <v>28.193360192672358</v>
       </c>
       <c r="H32">
-        <v>28.148988347580399</v>
+        <v>31.601977098430059</v>
       </c>
       <c r="I32">
-        <v>17.47043495876482</v>
+        <v>16.441715987261109</v>
       </c>
       <c r="J32">
-        <v>11.825847815144909</v>
+        <v>12.6976527780252</v>
       </c>
       <c r="K32">
-        <v>13.985639035221419</v>
+        <v>14.405032359639399</v>
       </c>
       <c r="L32">
-        <v>22.456121698918441</v>
+        <v>24.543250512627321</v>
       </c>
       <c r="M32">
-        <v>33.953836924402417</v>
+        <v>33.741215923403828</v>
       </c>
       <c r="N32">
-        <v>29.02294685692231</v>
+        <v>30.847437234126051</v>
       </c>
       <c r="O32">
-        <v>24.510082869239891</v>
+        <v>25.072212246970128</v>
       </c>
       <c r="P32">
-        <v>15.93652090119814</v>
+        <v>16.30477941791159</v>
       </c>
       <c r="Q32">
-        <v>20.038122919056129</v>
+        <v>19.136315717939659</v>
       </c>
       <c r="R32">
-        <v>14.807391472198139</v>
+        <v>14.50447328839388</v>
       </c>
       <c r="S32">
-        <v>23.468798526712881</v>
+        <v>23.957463974925549</v>
       </c>
       <c r="T32">
-        <v>15.508991372101081</v>
+        <v>13.846704938472159</v>
       </c>
       <c r="U32">
-        <v>18.6798104604757</v>
+        <v>17.48590196897386</v>
       </c>
       <c r="V32">
-        <v>31.719890285797089</v>
+        <v>36.256148620349713</v>
       </c>
       <c r="W32">
-        <v>20.401142106799089</v>
+        <v>21.077864938142461</v>
       </c>
       <c r="X32">
-        <v>14.047222923671169</v>
+        <v>15.452192130281739</v>
       </c>
       <c r="Y32">
-        <v>20.11951346830018</v>
+        <v>18.98911409650546</v>
       </c>
       <c r="Z32">
-        <v>17.333542286938808</v>
+        <v>18.273835484407531</v>
       </c>
       <c r="AA32">
-        <v>27.30028568050912</v>
+        <v>24.477055251076269</v>
       </c>
       <c r="AB32">
-        <v>19.06201408417197</v>
-      </c>
-      <c r="AC32">
-        <v>10.59935148467838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+        <v>20.30687792322956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -3606,88 +3560,85 @@
         <v>58</v>
       </c>
       <c r="C33">
-        <v>15.24148847663534</v>
+        <v>16.747608700031979</v>
       </c>
       <c r="D33">
-        <v>24.203326345230199</v>
+        <v>23.394658894222999</v>
       </c>
       <c r="E33">
-        <v>25.439030642124631</v>
+        <v>24.698765168917941</v>
       </c>
       <c r="F33">
-        <v>21.33096472980359</v>
+        <v>23.081180976975169</v>
       </c>
       <c r="G33">
-        <v>29.09990912980275</v>
+        <v>25.192556663729398</v>
       </c>
       <c r="H33">
-        <v>27.50021405897602</v>
+        <v>28.148988347580399</v>
       </c>
       <c r="I33">
-        <v>18.70962469330652</v>
+        <v>17.47043495876482</v>
       </c>
       <c r="J33">
-        <v>12.7389525260106</v>
+        <v>11.825847815144909</v>
       </c>
       <c r="K33">
-        <v>15.11457226855136</v>
+        <v>13.985639035221419</v>
       </c>
       <c r="L33">
-        <v>24.215262722012621</v>
+        <v>22.456121698918441</v>
       </c>
       <c r="M33">
-        <v>34.896302077617833</v>
+        <v>33.953836924402417</v>
       </c>
       <c r="N33">
-        <v>29.07468868552322</v>
+        <v>29.02294685692231</v>
       </c>
       <c r="O33">
-        <v>23.79349138532702</v>
+        <v>24.510082869239891</v>
       </c>
       <c r="P33">
-        <v>18.674330409747611</v>
+        <v>15.93652090119814</v>
       </c>
       <c r="Q33">
-        <v>20.891998618244958</v>
+        <v>20.038122919056129</v>
       </c>
       <c r="R33">
-        <v>13.80201180783456</v>
+        <v>14.807391472198139</v>
       </c>
       <c r="S33">
-        <v>23.4594292943911</v>
+        <v>23.468798526712881</v>
       </c>
       <c r="T33">
-        <v>15.73187904271499</v>
+        <v>15.508991372101081</v>
       </c>
       <c r="U33">
-        <v>18.672711392693579</v>
+        <v>18.6798104604757</v>
       </c>
       <c r="V33">
-        <v>31.406798549278029</v>
+        <v>31.719890285797089</v>
       </c>
       <c r="W33">
-        <v>19.563310979458169</v>
+        <v>20.401142106799089</v>
       </c>
       <c r="X33">
-        <v>14.78449458078676</v>
+        <v>14.047222923671169</v>
       </c>
       <c r="Y33">
-        <v>19.494682967878731</v>
+        <v>20.11951346830018</v>
       </c>
       <c r="Z33">
-        <v>17.608393063210229</v>
+        <v>17.333542286938808</v>
       </c>
       <c r="AA33">
-        <v>29.780920566287922</v>
+        <v>27.30028568050912</v>
       </c>
       <c r="AB33">
-        <v>18.347752583927662</v>
-      </c>
-      <c r="AC33">
-        <v>10.656570140919451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+        <v>19.06201408417197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -3695,91 +3646,85 @@
         <v>57</v>
       </c>
       <c r="C34">
-        <v>15.67663411790606</v>
+        <v>15.24148847663534</v>
       </c>
       <c r="D34">
-        <v>23.66514986441392</v>
+        <v>24.203326345230199</v>
       </c>
       <c r="E34">
-        <v>23.282295064632681</v>
+        <v>25.439030642124631</v>
       </c>
       <c r="F34">
-        <v>24.67793303728736</v>
+        <v>21.33096472980359</v>
       </c>
       <c r="G34">
-        <v>30.340902630216341</v>
+        <v>29.09990912980275</v>
       </c>
       <c r="H34">
-        <v>26.73657767779088</v>
+        <v>27.50021405897602</v>
       </c>
       <c r="I34">
-        <v>16.83141146767305</v>
+        <v>18.70962469330652</v>
       </c>
       <c r="J34">
-        <v>11.507113610096811</v>
+        <v>12.7389525260106</v>
       </c>
       <c r="K34">
-        <v>15.06613682353116</v>
+        <v>15.11457226855136</v>
       </c>
       <c r="L34">
-        <v>24.119632358845639</v>
+        <v>24.215262722012621</v>
       </c>
       <c r="M34">
-        <v>35.010925762376253</v>
+        <v>34.896302077617833</v>
       </c>
       <c r="N34">
-        <v>32.244167658101333</v>
+        <v>29.07468868552322</v>
       </c>
       <c r="O34">
-        <v>23.284111201776248</v>
+        <v>23.79349138532702</v>
       </c>
       <c r="P34">
-        <v>20.714992877102262</v>
+        <v>18.674330409747611</v>
       </c>
       <c r="Q34">
-        <v>21.09300470174994</v>
+        <v>20.891998618244958</v>
       </c>
       <c r="R34">
-        <v>14.29832286295388</v>
+        <v>13.80201180783456</v>
       </c>
       <c r="S34">
-        <v>21.804725242599851</v>
+        <v>23.4594292943911</v>
       </c>
       <c r="T34">
-        <v>16.0758298656576</v>
+        <v>15.73187904271499</v>
       </c>
       <c r="U34">
-        <v>20.64642581953585</v>
+        <v>18.672711392693579</v>
       </c>
       <c r="V34">
-        <v>33.702439713081723</v>
+        <v>31.406798549278029</v>
       </c>
       <c r="W34">
-        <v>20.79229832208571</v>
+        <v>19.563310979458169</v>
       </c>
       <c r="X34">
-        <v>14.34695363730008</v>
+        <v>14.78449458078676</v>
       </c>
       <c r="Y34">
-        <v>20.124681578846971</v>
+        <v>19.494682967878731</v>
       </c>
       <c r="Z34">
-        <v>17.964719060874391</v>
+        <v>17.608393063210229</v>
       </c>
       <c r="AA34">
-        <v>23.521627632677841</v>
+        <v>29.780920566287922</v>
       </c>
       <c r="AB34">
-        <v>18.518253189271949</v>
-      </c>
-      <c r="AC34">
-        <v>11.523031703318379</v>
-      </c>
-      <c r="AD34">
-        <v>154.6265881325061</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+        <v>18.347752583927662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -3787,91 +3732,85 @@
         <v>56</v>
       </c>
       <c r="C35">
-        <v>13.023150422822001</v>
+        <v>15.67663411790606</v>
       </c>
       <c r="D35">
-        <v>27.50303085645346</v>
+        <v>23.66514986441392</v>
       </c>
       <c r="E35">
-        <v>24.6824229993274</v>
+        <v>23.282295064632681</v>
       </c>
       <c r="F35">
-        <v>27.65842035289505</v>
+        <v>24.67793303728736</v>
       </c>
       <c r="G35">
-        <v>31.034415535962449</v>
+        <v>30.340902630216341</v>
       </c>
       <c r="H35">
-        <v>26.513270215869639</v>
+        <v>26.73657767779088</v>
       </c>
       <c r="I35">
-        <v>15.665352973770201</v>
+        <v>16.83141146767305</v>
       </c>
       <c r="J35">
-        <v>11.02666412598642</v>
+        <v>11.507113610096811</v>
       </c>
       <c r="K35">
-        <v>16.59776538265168</v>
+        <v>15.06613682353116</v>
       </c>
       <c r="L35">
-        <v>23.98338765558627</v>
+        <v>24.119632358845639</v>
       </c>
       <c r="M35">
-        <v>36.059285696508859</v>
+        <v>35.010925762376253</v>
       </c>
       <c r="N35">
-        <v>36.913760754356353</v>
+        <v>32.244167658101333</v>
       </c>
       <c r="O35">
-        <v>24.79428490399312</v>
+        <v>23.284111201776248</v>
       </c>
       <c r="P35">
-        <v>21.454868094642141</v>
+        <v>20.714992877102262</v>
       </c>
       <c r="Q35">
-        <v>20.792058705331549</v>
+        <v>21.09300470174994</v>
       </c>
       <c r="R35">
-        <v>14.91371969276778</v>
+        <v>14.29832286295388</v>
       </c>
       <c r="S35">
-        <v>21.55602502243649</v>
+        <v>21.804725242599851</v>
       </c>
       <c r="T35">
-        <v>15.49706808494105</v>
+        <v>16.0758298656576</v>
       </c>
       <c r="U35">
-        <v>20.673180859835728</v>
+        <v>20.64642581953585</v>
       </c>
       <c r="V35">
-        <v>35.232650836811089</v>
+        <v>33.702439713081723</v>
       </c>
       <c r="W35">
-        <v>22.842862746372731</v>
+        <v>20.79229832208571</v>
       </c>
       <c r="X35">
-        <v>15.77341625322466</v>
+        <v>14.34695363730008</v>
       </c>
       <c r="Y35">
-        <v>23.427801894306779</v>
+        <v>20.124681578846971</v>
       </c>
       <c r="Z35">
-        <v>17.091236956702939</v>
+        <v>17.964719060874391</v>
       </c>
       <c r="AA35">
-        <v>30.136670040262249</v>
+        <v>23.521627632677841</v>
       </c>
       <c r="AB35">
-        <v>20.834727936722299</v>
-      </c>
-      <c r="AC35">
-        <v>12.21972129900719</v>
-      </c>
-      <c r="AD35">
-        <v>155.89084474611539</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+        <v>18.518253189271949</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -3879,91 +3818,85 @@
         <v>55</v>
       </c>
       <c r="C36">
-        <v>12.753556102015869</v>
+        <v>13.023150422822001</v>
       </c>
       <c r="D36">
-        <v>27.143087217458561</v>
+        <v>27.50303085645346</v>
       </c>
       <c r="E36">
-        <v>20.307514271148321</v>
+        <v>24.6824229993274</v>
       </c>
       <c r="F36">
-        <v>26.859705479829689</v>
+        <v>27.65842035289505</v>
       </c>
       <c r="G36">
-        <v>32.87096814884594</v>
+        <v>31.034415535962449</v>
       </c>
       <c r="H36">
-        <v>29.741672010835181</v>
+        <v>26.513270215869639</v>
       </c>
       <c r="I36">
-        <v>13.456779528263329</v>
+        <v>15.665352973770201</v>
       </c>
       <c r="J36">
-        <v>10.3217108934039</v>
+        <v>11.02666412598642</v>
       </c>
       <c r="K36">
-        <v>16.084501808969581</v>
+        <v>16.59776538265168</v>
       </c>
       <c r="L36">
-        <v>22.667974540822449</v>
+        <v>23.98338765558627</v>
       </c>
       <c r="M36">
-        <v>38.674899143434907</v>
+        <v>36.059285696508859</v>
       </c>
       <c r="N36">
-        <v>39.080559759842757</v>
+        <v>36.913760754356353</v>
       </c>
       <c r="O36">
-        <v>25.155683354960999</v>
+        <v>24.79428490399312</v>
       </c>
       <c r="P36">
-        <v>18.25325110989349</v>
+        <v>21.454868094642141</v>
       </c>
       <c r="Q36">
-        <v>19.745502946181318</v>
+        <v>20.792058705331549</v>
       </c>
       <c r="R36">
-        <v>14.172252617838151</v>
+        <v>14.91371969276778</v>
       </c>
       <c r="S36">
-        <v>22.12733680995143</v>
+        <v>21.55602502243649</v>
       </c>
       <c r="T36">
-        <v>15.55809593949647</v>
+        <v>15.49706808494105</v>
       </c>
       <c r="U36">
-        <v>17.823246315164031</v>
+        <v>20.673180859835728</v>
       </c>
       <c r="V36">
-        <v>34.711090205505883</v>
+        <v>35.232650836811089</v>
       </c>
       <c r="W36">
-        <v>20.35817181516067</v>
+        <v>22.842862746372731</v>
       </c>
       <c r="X36">
-        <v>15.783641072895399</v>
+        <v>15.77341625322466</v>
       </c>
       <c r="Y36">
-        <v>26.689207427843691</v>
+        <v>23.427801894306779</v>
       </c>
       <c r="Z36">
-        <v>17.509467190245921</v>
+        <v>17.091236956702939</v>
       </c>
       <c r="AA36">
-        <v>32.529897671655121</v>
+        <v>30.136670040262249</v>
       </c>
       <c r="AB36">
-        <v>19.53081460315553</v>
-      </c>
-      <c r="AC36">
-        <v>11.699696329106169</v>
-      </c>
-      <c r="AD36">
-        <v>168.98749621214611</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+        <v>20.834727936722299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -3971,91 +3904,85 @@
         <v>54</v>
       </c>
       <c r="C37">
-        <v>12.58566620221313</v>
+        <v>12.753556102015869</v>
       </c>
       <c r="D37">
-        <v>24.846418978773631</v>
+        <v>27.143087217458561</v>
       </c>
       <c r="E37">
-        <v>19.864485515197462</v>
+        <v>20.307514271148321</v>
       </c>
       <c r="F37">
-        <v>24.906655045918338</v>
+        <v>26.859705479829689</v>
       </c>
       <c r="G37">
-        <v>31.46572392301475</v>
+        <v>32.87096814884594</v>
       </c>
       <c r="H37">
-        <v>26.8002709735282</v>
+        <v>29.741672010835181</v>
       </c>
       <c r="I37">
-        <v>14.12459873561513</v>
+        <v>13.456779528263329</v>
       </c>
       <c r="J37">
-        <v>9.4835414258575401</v>
+        <v>10.3217108934039</v>
       </c>
       <c r="K37">
-        <v>15.59672628201319</v>
+        <v>16.084501808969581</v>
       </c>
       <c r="L37">
-        <v>21.446112021452979</v>
+        <v>22.667974540822449</v>
       </c>
       <c r="M37">
-        <v>40.406875603590137</v>
+        <v>38.674899143434907</v>
       </c>
       <c r="N37">
-        <v>37.240077756209267</v>
+        <v>39.080559759842757</v>
       </c>
       <c r="O37">
-        <v>23.825090161373669</v>
+        <v>25.155683354960999</v>
       </c>
       <c r="P37">
-        <v>17.334252641624801</v>
+        <v>18.25325110989349</v>
       </c>
       <c r="Q37">
-        <v>18.720419684834201</v>
+        <v>19.745502946181318</v>
       </c>
       <c r="R37">
-        <v>15.42392530923971</v>
+        <v>14.172252617838151</v>
       </c>
       <c r="S37">
-        <v>20.944907771443919</v>
+        <v>22.12733680995143</v>
       </c>
       <c r="T37">
-        <v>15.20261334245872</v>
+        <v>15.55809593949647</v>
       </c>
       <c r="U37">
-        <v>18.978095671407729</v>
+        <v>17.823246315164031</v>
       </c>
       <c r="V37">
-        <v>35.090840305979533</v>
+        <v>34.711090205505883</v>
       </c>
       <c r="W37">
-        <v>19.096198690301559</v>
+        <v>20.35817181516067</v>
       </c>
       <c r="X37">
-        <v>13.815412190360041</v>
+        <v>15.783641072895399</v>
       </c>
       <c r="Y37">
-        <v>26.704202282930559</v>
+        <v>26.689207427843691</v>
       </c>
       <c r="Z37">
-        <v>16.448530394057709</v>
+        <v>17.509467190245921</v>
       </c>
       <c r="AA37">
-        <v>31.627389743845761</v>
+        <v>32.529897671655121</v>
       </c>
       <c r="AB37">
-        <v>16.52709526690365</v>
-      </c>
-      <c r="AC37">
-        <v>12.651774043007579</v>
-      </c>
-      <c r="AD37">
-        <v>168.04814392537119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+        <v>19.53081460315553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -4063,91 +3990,85 @@
         <v>53</v>
       </c>
       <c r="C38">
-        <v>11.08439584180711</v>
+        <v>12.58566620221313</v>
       </c>
       <c r="D38">
-        <v>22.62724160627177</v>
+        <v>24.846418978773631</v>
       </c>
       <c r="E38">
-        <v>18.802495878916961</v>
+        <v>19.864485515197462</v>
       </c>
       <c r="F38">
-        <v>21.937525704348829</v>
+        <v>24.906655045918338</v>
       </c>
       <c r="G38">
-        <v>26.60207387570145</v>
+        <v>31.46572392301475</v>
       </c>
       <c r="H38">
-        <v>24.884907724340831</v>
+        <v>26.8002709735282</v>
       </c>
       <c r="I38">
-        <v>10.986391043019371</v>
+        <v>14.12459873561513</v>
       </c>
       <c r="J38">
-        <v>7.8444419472615383</v>
+        <v>9.4835414258575401</v>
       </c>
       <c r="K38">
-        <v>14.70925764823394</v>
+        <v>15.59672628201319</v>
       </c>
       <c r="L38">
-        <v>21.787645382664738</v>
+        <v>21.446112021452979</v>
       </c>
       <c r="M38">
-        <v>35.408732630884032</v>
+        <v>40.406875603590137</v>
       </c>
       <c r="N38">
-        <v>37.886214329959159</v>
+        <v>37.240077756209267</v>
       </c>
       <c r="O38">
-        <v>21.68591603710977</v>
+        <v>23.825090161373669</v>
       </c>
       <c r="P38">
-        <v>16.880333906666159</v>
+        <v>17.334252641624801</v>
       </c>
       <c r="Q38">
-        <v>17.829071675627471</v>
+        <v>18.720419684834201</v>
       </c>
       <c r="R38">
-        <v>13.674545423616999</v>
+        <v>15.42392530923971</v>
       </c>
       <c r="S38">
-        <v>21.436113451816102</v>
+        <v>20.944907771443919</v>
       </c>
       <c r="T38">
-        <v>13.171028215681471</v>
+        <v>15.20261334245872</v>
       </c>
       <c r="U38">
-        <v>18.837999631505149</v>
+        <v>18.978095671407729</v>
       </c>
       <c r="V38">
-        <v>39.524591336220588</v>
+        <v>35.090840305979533</v>
       </c>
       <c r="W38">
-        <v>17.584552867796312</v>
+        <v>19.096198690301559</v>
       </c>
       <c r="X38">
-        <v>13.713450621102719</v>
+        <v>13.815412190360041</v>
       </c>
       <c r="Y38">
-        <v>24.982232374879182</v>
+        <v>26.704202282930559</v>
       </c>
       <c r="Z38">
-        <v>15.264186863843721</v>
+        <v>16.448530394057709</v>
       </c>
       <c r="AA38">
-        <v>30.68466801386182</v>
+        <v>31.627389743845761</v>
       </c>
       <c r="AB38">
-        <v>15.08579033953801</v>
-      </c>
-      <c r="AC38">
-        <v>10.62368573197576</v>
-      </c>
-      <c r="AD38">
-        <v>160.36664627993181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+        <v>16.52709526690365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -4155,91 +4076,85 @@
         <v>52</v>
       </c>
       <c r="C39">
-        <v>10.392788438204761</v>
+        <v>11.08439584180711</v>
       </c>
       <c r="D39">
-        <v>24.029071249977989</v>
+        <v>22.62724160627177</v>
       </c>
       <c r="E39">
-        <v>17.431417895134999</v>
+        <v>18.802495878916961</v>
       </c>
       <c r="F39">
-        <v>25.099688759918148</v>
+        <v>21.937525704348829</v>
       </c>
       <c r="G39">
-        <v>23.88910589529662</v>
+        <v>26.60207387570145</v>
       </c>
       <c r="H39">
-        <v>27.172879628036011</v>
+        <v>24.884907724340831</v>
       </c>
       <c r="I39">
-        <v>11.64405944841975</v>
+        <v>10.986391043019371</v>
       </c>
       <c r="J39">
-        <v>9.216294053386326</v>
+        <v>7.8444419472615383</v>
       </c>
       <c r="K39">
-        <v>15.06466811227429</v>
+        <v>14.70925764823394</v>
       </c>
       <c r="L39">
-        <v>23.33794826531058</v>
+        <v>21.787645382664738</v>
       </c>
       <c r="M39">
-        <v>35.482902704526367</v>
+        <v>35.408732630884032</v>
       </c>
       <c r="N39">
-        <v>42.957655988961527</v>
+        <v>37.886214329959159</v>
       </c>
       <c r="O39">
-        <v>23.391013061941141</v>
+        <v>21.68591603710977</v>
       </c>
       <c r="P39">
-        <v>19.13059881733372</v>
+        <v>16.880333906666159</v>
       </c>
       <c r="Q39">
-        <v>19.52536539069683</v>
+        <v>17.829071675627471</v>
       </c>
       <c r="R39">
-        <v>14.741124286695831</v>
+        <v>13.674545423616999</v>
       </c>
       <c r="S39">
-        <v>25.448431447980411</v>
+        <v>21.436113451816102</v>
       </c>
       <c r="T39">
-        <v>14.109179348209119</v>
+        <v>13.171028215681471</v>
       </c>
       <c r="U39">
-        <v>23.371574043161331</v>
+        <v>18.837999631505149</v>
       </c>
       <c r="V39">
-        <v>39.44138251105089</v>
+        <v>39.524591336220588</v>
       </c>
       <c r="W39">
-        <v>19.443494175372631</v>
+        <v>17.584552867796312</v>
       </c>
       <c r="X39">
-        <v>15.092101331154771</v>
+        <v>13.713450621102719</v>
       </c>
       <c r="Y39">
-        <v>24.961450049232969</v>
+        <v>24.982232374879182</v>
       </c>
       <c r="Z39">
-        <v>16.24300026930154</v>
+        <v>15.264186863843721</v>
       </c>
       <c r="AA39">
-        <v>30.920408870500111</v>
+        <v>30.68466801386182</v>
       </c>
       <c r="AB39">
-        <v>14.246110976533121</v>
-      </c>
-      <c r="AC39">
-        <v>11.17797208239076</v>
-      </c>
-      <c r="AD39">
-        <v>174.93759360978001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+        <v>15.08579033953801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -4247,91 +4162,85 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>11.26599712430246</v>
+        <v>10.392788438204761</v>
       </c>
       <c r="D40">
-        <v>26.128941658883509</v>
+        <v>24.029071249977989</v>
       </c>
       <c r="E40">
-        <v>14.81802955515748</v>
+        <v>17.431417895134999</v>
       </c>
       <c r="F40">
-        <v>22.401373150049061</v>
+        <v>25.099688759918148</v>
       </c>
       <c r="G40">
-        <v>23.72866515400867</v>
+        <v>23.88910589529662</v>
       </c>
       <c r="H40">
-        <v>23.39310973868772</v>
+        <v>27.172879628036011</v>
       </c>
       <c r="I40">
-        <v>13.196359786635631</v>
+        <v>11.64405944841975</v>
       </c>
       <c r="J40">
-        <v>9.9356804995994317</v>
+        <v>9.216294053386326</v>
       </c>
       <c r="K40">
-        <v>15.46311873658165</v>
+        <v>15.06466811227429</v>
       </c>
       <c r="L40">
-        <v>24.827546225810458</v>
+        <v>23.33794826531058</v>
       </c>
       <c r="M40">
-        <v>32.006244671134233</v>
+        <v>35.482902704526367</v>
       </c>
       <c r="N40">
-        <v>42.064695691460187</v>
+        <v>42.957655988961527</v>
       </c>
       <c r="O40">
-        <v>24.606931458191291</v>
+        <v>23.391013061941141</v>
       </c>
       <c r="P40">
-        <v>17.58532270433194</v>
+        <v>19.13059881733372</v>
       </c>
       <c r="Q40">
-        <v>20.23716377352557</v>
+        <v>19.52536539069683</v>
       </c>
       <c r="R40">
-        <v>13.037621252623881</v>
+        <v>14.741124286695831</v>
       </c>
       <c r="S40">
-        <v>26.523331774987629</v>
+        <v>25.448431447980411</v>
       </c>
       <c r="T40">
-        <v>14.051722096306801</v>
+        <v>14.109179348209119</v>
       </c>
       <c r="U40">
-        <v>22.88081283174607</v>
+        <v>23.371574043161331</v>
       </c>
       <c r="V40">
-        <v>37.680986251830781</v>
+        <v>39.44138251105089</v>
       </c>
       <c r="W40">
-        <v>19.96456635577368</v>
+        <v>19.443494175372631</v>
       </c>
       <c r="X40">
-        <v>15.36903505265156</v>
+        <v>15.092101331154771</v>
       </c>
       <c r="Y40">
-        <v>26.605841243450701</v>
+        <v>24.961450049232969</v>
       </c>
       <c r="Z40">
-        <v>18.652421539037171</v>
+        <v>16.24300026930154</v>
       </c>
       <c r="AA40">
-        <v>29.62967210978659</v>
+        <v>30.920408870500111</v>
       </c>
       <c r="AB40">
-        <v>15.63324520359545</v>
-      </c>
-      <c r="AC40">
-        <v>9.8755876965559306</v>
-      </c>
-      <c r="AD40">
-        <v>155.7552690799304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+        <v>14.246110976533121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -4339,91 +4248,85 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>11.035577807596161</v>
+        <v>11.26599712430246</v>
       </c>
       <c r="D41">
-        <v>26.785845362381391</v>
+        <v>26.128941658883509</v>
       </c>
       <c r="E41">
-        <v>14.39413060889583</v>
+        <v>14.81802955515748</v>
       </c>
       <c r="F41">
-        <v>21.888052825094942</v>
+        <v>22.401373150049061</v>
       </c>
       <c r="G41">
-        <v>20.112513107983709</v>
+        <v>23.72866515400867</v>
       </c>
       <c r="H41">
-        <v>23.728810891428289</v>
+        <v>23.39310973868772</v>
       </c>
       <c r="I41">
-        <v>13.073345200374909</v>
+        <v>13.196359786635631</v>
       </c>
       <c r="J41">
-        <v>11.030472064396809</v>
+        <v>9.9356804995994317</v>
       </c>
       <c r="K41">
-        <v>15.16368302652465</v>
+        <v>15.46311873658165</v>
       </c>
       <c r="L41">
-        <v>23.768040110676409</v>
+        <v>24.827546225810458</v>
       </c>
       <c r="M41">
-        <v>30.261546169278791</v>
+        <v>32.006244671134233</v>
       </c>
       <c r="N41">
-        <v>39.033283057216892</v>
+        <v>42.064695691460187</v>
       </c>
       <c r="O41">
-        <v>24.723920489807821</v>
+        <v>24.606931458191291</v>
       </c>
       <c r="P41">
-        <v>17.235227296589979</v>
+        <v>17.58532270433194</v>
       </c>
       <c r="Q41">
-        <v>22.179616923690588</v>
+        <v>20.23716377352557</v>
       </c>
       <c r="R41">
-        <v>13.40758554584065</v>
+        <v>13.037621252623881</v>
       </c>
       <c r="S41">
-        <v>24.754646346446251</v>
+        <v>26.523331774987629</v>
       </c>
       <c r="T41">
-        <v>15.032408055612519</v>
+        <v>14.051722096306801</v>
       </c>
       <c r="U41">
-        <v>20.672719494572121</v>
+        <v>22.88081283174607</v>
       </c>
       <c r="V41">
-        <v>32.396199098777672</v>
+        <v>37.680986251830781</v>
       </c>
       <c r="W41">
-        <v>20.22483416710709</v>
+        <v>19.96456635577368</v>
       </c>
       <c r="X41">
-        <v>15.366545833973991</v>
+        <v>15.36903505265156</v>
       </c>
       <c r="Y41">
-        <v>28.147867066449528</v>
+        <v>26.605841243450701</v>
       </c>
       <c r="Z41">
-        <v>18.912976223503911</v>
+        <v>18.652421539037171</v>
       </c>
       <c r="AA41">
-        <v>28.314360422708361</v>
+        <v>29.62967210978659</v>
       </c>
       <c r="AB41">
-        <v>16.38208547782871</v>
-      </c>
-      <c r="AC41">
-        <v>9.3489999606741971</v>
-      </c>
-      <c r="AD41">
-        <v>158.00793146678879</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+        <v>15.63324520359545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -4431,91 +4334,85 @@
         <v>49</v>
       </c>
       <c r="C42">
-        <v>11.39506274191433</v>
+        <v>11.035577807596161</v>
       </c>
       <c r="D42">
-        <v>26.602014993387829</v>
+        <v>26.785845362381391</v>
       </c>
       <c r="E42">
-        <v>15.04863836430496</v>
+        <v>14.39413060889583</v>
       </c>
       <c r="F42">
-        <v>23.358304159743671</v>
+        <v>21.888052825094942</v>
       </c>
       <c r="G42">
-        <v>23.13781082394161</v>
+        <v>20.112513107983709</v>
       </c>
       <c r="H42">
-        <v>23.00129365822967</v>
+        <v>23.728810891428289</v>
       </c>
       <c r="I42">
-        <v>15.416706258470921</v>
+        <v>13.073345200374909</v>
       </c>
       <c r="J42">
-        <v>11.071004753356</v>
+        <v>11.030472064396809</v>
       </c>
       <c r="K42">
-        <v>16.498985007344071</v>
+        <v>15.16368302652465</v>
       </c>
       <c r="L42">
-        <v>22.01253707691372</v>
+        <v>23.768040110676409</v>
       </c>
       <c r="M42">
-        <v>27.82805666165903</v>
+        <v>30.261546169278791</v>
       </c>
       <c r="N42">
-        <v>38.220428841210612</v>
+        <v>39.033283057216892</v>
       </c>
       <c r="O42">
-        <v>24.2986427275967</v>
+        <v>24.723920489807821</v>
       </c>
       <c r="P42">
-        <v>19.258839200019739</v>
+        <v>17.235227296589979</v>
       </c>
       <c r="Q42">
-        <v>21.362900437542081</v>
+        <v>22.179616923690588</v>
       </c>
       <c r="R42">
-        <v>14.19495166789498</v>
+        <v>13.40758554584065</v>
       </c>
       <c r="S42">
-        <v>23.301910766934778</v>
+        <v>24.754646346446251</v>
       </c>
       <c r="T42">
-        <v>16.05498454863481</v>
+        <v>15.032408055612519</v>
       </c>
       <c r="U42">
-        <v>22.913449542253829</v>
+        <v>20.672719494572121</v>
       </c>
       <c r="V42">
-        <v>29.942262229683219</v>
+        <v>32.396199098777672</v>
       </c>
       <c r="W42">
-        <v>21.35604142940479</v>
+        <v>20.22483416710709</v>
       </c>
       <c r="X42">
-        <v>14.636820448415451</v>
+        <v>15.366545833973991</v>
       </c>
       <c r="Y42">
-        <v>27.1955646290271</v>
+        <v>28.147867066449528</v>
       </c>
       <c r="Z42">
-        <v>17.457126819134601</v>
+        <v>18.912976223503911</v>
       </c>
       <c r="AA42">
-        <v>26.825781291673081</v>
+        <v>28.314360422708361</v>
       </c>
       <c r="AB42">
-        <v>16.108215303899801</v>
-      </c>
-      <c r="AC42">
-        <v>10.066954231161599</v>
-      </c>
-      <c r="AD42">
-        <v>135.85505685541011</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+        <v>16.38208547782871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -4523,91 +4420,85 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>11.704344625406771</v>
+        <v>11.39506274191433</v>
       </c>
       <c r="D43">
-        <v>26.72726372694996</v>
+        <v>26.602014993387829</v>
       </c>
       <c r="E43">
-        <v>17.419606931613149</v>
+        <v>15.04863836430496</v>
       </c>
       <c r="F43">
-        <v>19.966405008697549</v>
+        <v>23.358304159743671</v>
       </c>
       <c r="G43">
-        <v>22.51496882211416</v>
+        <v>23.13781082394161</v>
       </c>
       <c r="H43">
-        <v>26.747926651812989</v>
+        <v>23.00129365822967</v>
       </c>
       <c r="I43">
-        <v>16.318240211995839</v>
+        <v>15.416706258470921</v>
       </c>
       <c r="J43">
-        <v>12.92080776384736</v>
+        <v>11.071004753356</v>
       </c>
       <c r="K43">
-        <v>15.525411946045161</v>
+        <v>16.498985007344071</v>
       </c>
       <c r="L43">
-        <v>21.49894837720705</v>
+        <v>22.01253707691372</v>
       </c>
       <c r="M43">
-        <v>30.61777396700656</v>
+        <v>27.82805666165903</v>
       </c>
       <c r="N43">
-        <v>38.982353484680587</v>
+        <v>38.220428841210612</v>
       </c>
       <c r="O43">
-        <v>23.82251222568518</v>
+        <v>24.2986427275967</v>
       </c>
       <c r="P43">
-        <v>18.06216272516172</v>
+        <v>19.258839200019739</v>
       </c>
       <c r="Q43">
-        <v>20.606834069636498</v>
+        <v>21.362900437542081</v>
       </c>
       <c r="R43">
-        <v>18.236284274944829</v>
+        <v>14.19495166789498</v>
       </c>
       <c r="S43">
-        <v>24.223998893842751</v>
+        <v>23.301910766934778</v>
       </c>
       <c r="T43">
-        <v>15.024577336537121</v>
+        <v>16.05498454863481</v>
       </c>
       <c r="U43">
-        <v>24.21910640361704</v>
+        <v>22.913449542253829</v>
       </c>
       <c r="V43">
-        <v>28.408217230963849</v>
+        <v>29.942262229683219</v>
       </c>
       <c r="W43">
-        <v>19.970877235836621</v>
+        <v>21.35604142940479</v>
       </c>
       <c r="X43">
-        <v>15.41019299210979</v>
+        <v>14.636820448415451</v>
       </c>
       <c r="Y43">
-        <v>30.448467235568849</v>
+        <v>27.1955646290271</v>
       </c>
       <c r="Z43">
-        <v>17.856106614574319</v>
+        <v>17.457126819134601</v>
       </c>
       <c r="AA43">
-        <v>27.011124517625571</v>
+        <v>26.825781291673081</v>
       </c>
       <c r="AB43">
-        <v>15.35619039117843</v>
-      </c>
-      <c r="AC43">
-        <v>15.213235781896991</v>
-      </c>
-      <c r="AD43">
-        <v>125.2330560569316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+        <v>16.108215303899801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -4615,91 +4506,85 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>12.07607396579343</v>
+        <v>11.704344625406771</v>
       </c>
       <c r="D44">
-        <v>28.09221179873801</v>
+        <v>26.72726372694996</v>
       </c>
       <c r="E44">
-        <v>18.29585137470923</v>
+        <v>17.419606931613149</v>
       </c>
       <c r="F44">
-        <v>21.641028774710481</v>
+        <v>19.966405008697549</v>
       </c>
       <c r="G44">
-        <v>26.86351256945915</v>
+        <v>22.51496882211416</v>
       </c>
       <c r="H44">
-        <v>29.74734755562147</v>
+        <v>26.747926651812989</v>
       </c>
       <c r="I44">
-        <v>16.214100806659101</v>
+        <v>16.318240211995839</v>
       </c>
       <c r="J44">
-        <v>11.79774025671281</v>
+        <v>12.92080776384736</v>
       </c>
       <c r="K44">
-        <v>17.041384424342599</v>
+        <v>15.525411946045161</v>
       </c>
       <c r="L44">
-        <v>21.6846309934304</v>
+        <v>21.49894837720705</v>
       </c>
       <c r="M44">
-        <v>32.084268097270488</v>
+        <v>30.61777396700656</v>
       </c>
       <c r="N44">
-        <v>41.268810767867272</v>
+        <v>38.982353484680587</v>
       </c>
       <c r="O44">
-        <v>24.9634284759601</v>
+        <v>23.82251222568518</v>
       </c>
       <c r="P44">
-        <v>17.49515587205677</v>
+        <v>18.06216272516172</v>
       </c>
       <c r="Q44">
-        <v>21.885419235804779</v>
+        <v>20.606834069636498</v>
       </c>
       <c r="R44">
-        <v>18.360761010012329</v>
+        <v>18.236284274944829</v>
       </c>
       <c r="S44">
-        <v>25.179384498923071</v>
+        <v>24.223998893842751</v>
       </c>
       <c r="T44">
-        <v>16.11089695700592</v>
+        <v>15.024577336537121</v>
       </c>
       <c r="U44">
-        <v>25.274929165270759</v>
+        <v>24.21910640361704</v>
       </c>
       <c r="V44">
-        <v>30.04887924964159</v>
+        <v>28.408217230963849</v>
       </c>
       <c r="W44">
-        <v>21.093598349920821</v>
+        <v>19.970877235836621</v>
       </c>
       <c r="X44">
-        <v>14.966437366868631</v>
+        <v>15.41019299210979</v>
       </c>
       <c r="Y44">
-        <v>30.05600663080428</v>
+        <v>30.448467235568849</v>
       </c>
       <c r="Z44">
-        <v>15.98530371031636</v>
+        <v>17.856106614574319</v>
       </c>
       <c r="AA44">
-        <v>26.341525609659929</v>
+        <v>27.011124517625571</v>
       </c>
       <c r="AB44">
-        <v>15.786048983091479</v>
-      </c>
-      <c r="AC44">
-        <v>14.70947977207037</v>
-      </c>
-      <c r="AD44">
-        <v>142.80266050321839</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+        <v>15.35619039117843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -4707,91 +4592,85 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>10.525554559386221</v>
+        <v>12.07607396579343</v>
       </c>
       <c r="D45">
-        <v>29.927776205170371</v>
+        <v>28.09221179873801</v>
       </c>
       <c r="E45">
-        <v>19.19808305343485</v>
+        <v>18.29585137470923</v>
       </c>
       <c r="F45">
-        <v>22.0450385856285</v>
+        <v>21.641028774710481</v>
       </c>
       <c r="G45">
-        <v>26.286110815099281</v>
+        <v>26.86351256945915</v>
       </c>
       <c r="H45">
-        <v>32.579170440120379</v>
+        <v>29.74734755562147</v>
       </c>
       <c r="I45">
-        <v>18.684661413494311</v>
+        <v>16.214100806659101</v>
       </c>
       <c r="J45">
-        <v>11.63312657772957</v>
+        <v>11.79774025671281</v>
       </c>
       <c r="K45">
-        <v>15.55030656624413</v>
+        <v>17.041384424342599</v>
       </c>
       <c r="L45">
-        <v>22.710513975023829</v>
+        <v>21.6846309934304</v>
       </c>
       <c r="M45">
-        <v>29.10715712618186</v>
+        <v>32.084268097270488</v>
       </c>
       <c r="N45">
-        <v>41.624823316074433</v>
+        <v>41.268810767867272</v>
       </c>
       <c r="O45">
-        <v>26.04301210942565</v>
+        <v>24.9634284759601</v>
       </c>
       <c r="P45">
-        <v>15.93307561027259</v>
+        <v>17.49515587205677</v>
       </c>
       <c r="Q45">
-        <v>22.897466910756432</v>
+        <v>21.885419235804779</v>
       </c>
       <c r="R45">
-        <v>18.85438383423902</v>
+        <v>18.360761010012329</v>
       </c>
       <c r="S45">
-        <v>29.126970700800332</v>
+        <v>25.179384498923071</v>
       </c>
       <c r="T45">
-        <v>16.152974013064121</v>
+        <v>16.11089695700592</v>
       </c>
       <c r="U45">
-        <v>25.814287825771071</v>
+        <v>25.274929165270759</v>
       </c>
       <c r="V45">
-        <v>31.0925828366675</v>
+        <v>30.04887924964159</v>
       </c>
       <c r="W45">
-        <v>20.333749268738281</v>
+        <v>21.093598349920821</v>
       </c>
       <c r="X45">
-        <v>15.65819774672268</v>
+        <v>14.966437366868631</v>
       </c>
       <c r="Y45">
-        <v>32.955600476487753</v>
+        <v>30.05600663080428</v>
       </c>
       <c r="Z45">
-        <v>14.44408982617988</v>
+        <v>15.98530371031636</v>
       </c>
       <c r="AA45">
-        <v>24.395047775583059</v>
+        <v>26.341525609659929</v>
       </c>
       <c r="AB45">
-        <v>16.424595887145991</v>
-      </c>
-      <c r="AC45">
-        <v>14.310172524813479</v>
-      </c>
-      <c r="AD45">
-        <v>142.6197909202898</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+        <v>15.786048983091479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -4799,91 +4678,85 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>9.7614242449140889</v>
+        <v>10.525554559386221</v>
       </c>
       <c r="D46">
-        <v>29.606607066603569</v>
+        <v>29.927776205170371</v>
       </c>
       <c r="E46">
-        <v>20.260784505441691</v>
+        <v>19.19808305343485</v>
       </c>
       <c r="F46">
-        <v>23.10054481409772</v>
+        <v>22.0450385856285</v>
       </c>
       <c r="G46">
-        <v>27.219568596935861</v>
+        <v>26.286110815099281</v>
       </c>
       <c r="H46">
-        <v>40.878130109791137</v>
+        <v>32.579170440120379</v>
       </c>
       <c r="I46">
-        <v>21.41213215104019</v>
+        <v>18.684661413494311</v>
       </c>
       <c r="J46">
-        <v>13.221867841550401</v>
+        <v>11.63312657772957</v>
       </c>
       <c r="K46">
-        <v>16.43276989710909</v>
+        <v>15.55030656624413</v>
       </c>
       <c r="L46">
-        <v>22.535809334540271</v>
+        <v>22.710513975023829</v>
       </c>
       <c r="M46">
-        <v>26.163797944001871</v>
+        <v>29.10715712618186</v>
       </c>
       <c r="N46">
-        <v>42.514161089596847</v>
+        <v>41.624823316074433</v>
       </c>
       <c r="O46">
-        <v>27.05145327520189</v>
+        <v>26.04301210942565</v>
       </c>
       <c r="P46">
-        <v>17.324663672332331</v>
+        <v>15.93307561027259</v>
       </c>
       <c r="Q46">
-        <v>22.088110385295561</v>
+        <v>22.897466910756432</v>
       </c>
       <c r="R46">
-        <v>19.311588258205958</v>
+        <v>18.85438383423902</v>
       </c>
       <c r="S46">
-        <v>29.143740062812618</v>
+        <v>29.126970700800332</v>
       </c>
       <c r="T46">
-        <v>15.922467547510241</v>
+        <v>16.152974013064121</v>
       </c>
       <c r="U46">
-        <v>27.373217469970779</v>
+        <v>25.814287825771071</v>
       </c>
       <c r="V46">
-        <v>26.784090221176971</v>
+        <v>31.0925828366675</v>
       </c>
       <c r="W46">
-        <v>21.06662736487193</v>
+        <v>20.333749268738281</v>
       </c>
       <c r="X46">
-        <v>15.278776043483671</v>
+        <v>15.65819774672268</v>
       </c>
       <c r="Y46">
-        <v>33.635558004869033</v>
+        <v>32.955600476487753</v>
       </c>
       <c r="Z46">
-        <v>15.766829326747979</v>
+        <v>14.44408982617988</v>
       </c>
       <c r="AA46">
-        <v>23.27199422147179</v>
+        <v>24.395047775583059</v>
       </c>
       <c r="AB46">
-        <v>16.748293620881739</v>
-      </c>
-      <c r="AC46">
-        <v>15.40119344248277</v>
-      </c>
-      <c r="AD46">
-        <v>145.14198333958461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+        <v>16.424595887145991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4891,91 +4764,85 @@
         <v>44</v>
       </c>
       <c r="C47">
-        <v>10.19828085820903</v>
+        <v>9.7614242449140889</v>
       </c>
       <c r="D47">
-        <v>32.912035637074077</v>
+        <v>29.606607066603569</v>
       </c>
       <c r="E47">
-        <v>21.902855292744949</v>
+        <v>20.260784505441691</v>
       </c>
       <c r="F47">
-        <v>21.12175043057135</v>
+        <v>23.10054481409772</v>
       </c>
       <c r="G47">
-        <v>28.554251318944331</v>
+        <v>27.219568596935861</v>
       </c>
       <c r="H47">
-        <v>46.1024256959236</v>
+        <v>40.878130109791137</v>
       </c>
       <c r="I47">
-        <v>26.903416819862908</v>
+        <v>21.41213215104019</v>
       </c>
       <c r="J47">
-        <v>14.41431914028607</v>
+        <v>13.221867841550401</v>
       </c>
       <c r="K47">
-        <v>18.609165992554459</v>
+        <v>16.43276989710909</v>
       </c>
       <c r="L47">
-        <v>22.941827992445781</v>
+        <v>22.535809334540271</v>
       </c>
       <c r="M47">
-        <v>28.139410429145151</v>
+        <v>26.163797944001871</v>
       </c>
       <c r="N47">
-        <v>47.893271280439777</v>
+        <v>42.514161089596847</v>
       </c>
       <c r="O47">
-        <v>28.854910311182099</v>
+        <v>27.05145327520189</v>
       </c>
       <c r="P47">
-        <v>20.43568458590131</v>
+        <v>17.324663672332331</v>
       </c>
       <c r="Q47">
-        <v>23.483736370670549</v>
+        <v>22.088110385295561</v>
       </c>
       <c r="R47">
-        <v>21.32452209644018</v>
+        <v>19.311588258205958</v>
       </c>
       <c r="S47">
-        <v>31.552678993182429</v>
+        <v>29.143740062812618</v>
       </c>
       <c r="T47">
-        <v>13.994225153224271</v>
+        <v>15.922467547510241</v>
       </c>
       <c r="U47">
-        <v>31.045232778121211</v>
+        <v>27.373217469970779</v>
       </c>
       <c r="V47">
-        <v>31.939175854587429</v>
+        <v>26.784090221176971</v>
       </c>
       <c r="W47">
-        <v>21.280871230226989</v>
+        <v>21.06662736487193</v>
       </c>
       <c r="X47">
-        <v>17.020815609543849</v>
+        <v>15.278776043483671</v>
       </c>
       <c r="Y47">
-        <v>36.947993167820947</v>
+        <v>33.635558004869033</v>
       </c>
       <c r="Z47">
-        <v>16.812003037623011</v>
+        <v>15.766829326747979</v>
       </c>
       <c r="AA47">
-        <v>21.734743361086149</v>
+        <v>23.27199422147179</v>
       </c>
       <c r="AB47">
-        <v>21.104996667711671</v>
-      </c>
-      <c r="AC47">
-        <v>16.84077715475652</v>
-      </c>
-      <c r="AD47">
-        <v>150.183062100271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+        <v>16.748293620881739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -4983,91 +4850,85 @@
         <v>43</v>
       </c>
       <c r="C48">
-        <v>10.039143448162321</v>
+        <v>10.19828085820903</v>
       </c>
       <c r="D48">
-        <v>29.955913937083491</v>
+        <v>32.912035637074077</v>
       </c>
       <c r="E48">
-        <v>19.941560522977621</v>
+        <v>21.902855292744949</v>
       </c>
       <c r="F48">
-        <v>19.937977198319299</v>
+        <v>21.12175043057135</v>
       </c>
       <c r="G48">
-        <v>26.835364717528851</v>
+        <v>28.554251318944331</v>
       </c>
       <c r="H48">
-        <v>49.295605785513757</v>
+        <v>46.1024256959236</v>
       </c>
       <c r="I48">
-        <v>24.39349243891629</v>
+        <v>26.903416819862908</v>
       </c>
       <c r="J48">
-        <v>13.120081147695339</v>
+        <v>14.41431914028607</v>
       </c>
       <c r="K48">
-        <v>20.404275156451071</v>
+        <v>18.609165992554459</v>
       </c>
       <c r="L48">
-        <v>21.376355158643431</v>
+        <v>22.941827992445781</v>
       </c>
       <c r="M48">
-        <v>25.217490771071059</v>
+        <v>28.139410429145151</v>
       </c>
       <c r="N48">
-        <v>43.186335432353779</v>
+        <v>47.893271280439777</v>
       </c>
       <c r="O48">
-        <v>26.36863437078841</v>
+        <v>28.854910311182099</v>
       </c>
       <c r="P48">
-        <v>22.215221330001839</v>
+        <v>20.43568458590131</v>
       </c>
       <c r="Q48">
-        <v>21.072043182731559</v>
+        <v>23.483736370670549</v>
       </c>
       <c r="R48">
-        <v>21.010505144382659</v>
+        <v>21.32452209644018</v>
       </c>
       <c r="S48">
-        <v>27.893196607352191</v>
+        <v>31.552678993182429</v>
       </c>
       <c r="T48">
-        <v>13.3802932537369</v>
+        <v>13.994225153224271</v>
       </c>
       <c r="U48">
-        <v>32.259201847570267</v>
+        <v>31.045232778121211</v>
       </c>
       <c r="V48">
-        <v>32.832574782759721</v>
+        <v>31.939175854587429</v>
       </c>
       <c r="W48">
-        <v>18.122288702517022</v>
+        <v>21.280871230226989</v>
       </c>
       <c r="X48">
-        <v>17.09077880101022</v>
+        <v>17.020815609543849</v>
       </c>
       <c r="Y48">
-        <v>34.223889711195</v>
+        <v>36.947993167820947</v>
       </c>
       <c r="Z48">
-        <v>14.792359272948509</v>
+        <v>16.812003037623011</v>
       </c>
       <c r="AA48">
-        <v>18.8423536813285</v>
+        <v>21.734743361086149</v>
       </c>
       <c r="AB48">
-        <v>18.738617370726029</v>
-      </c>
-      <c r="AC48">
-        <v>16.112849231973939</v>
-      </c>
-      <c r="AD48">
-        <v>161.140235293491</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+        <v>21.104996667711671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -5075,91 +4936,85 @@
         <v>42</v>
       </c>
       <c r="C49">
-        <v>9.0038797382074254</v>
+        <v>10.039143448162321</v>
       </c>
       <c r="D49">
-        <v>26.23446804393156</v>
+        <v>29.955913937083491</v>
       </c>
       <c r="E49">
-        <v>20.236143762909471</v>
+        <v>19.941560522977621</v>
       </c>
       <c r="F49">
-        <v>20.773911865543528</v>
+        <v>19.937977198319299</v>
       </c>
       <c r="G49">
-        <v>28.356201366675261</v>
+        <v>26.835364717528851</v>
       </c>
       <c r="H49">
-        <v>48.514840994093397</v>
+        <v>49.295605785513757</v>
       </c>
       <c r="I49">
-        <v>21.891623269349981</v>
+        <v>24.39349243891629</v>
       </c>
       <c r="J49">
-        <v>14.665582039431159</v>
+        <v>13.120081147695339</v>
       </c>
       <c r="K49">
-        <v>20.062855011239701</v>
+        <v>20.404275156451071</v>
       </c>
       <c r="L49">
-        <v>21.355785185253769</v>
+        <v>21.376355158643431</v>
       </c>
       <c r="M49">
-        <v>25.32242033284707</v>
+        <v>25.217490771071059</v>
       </c>
       <c r="N49">
-        <v>45.075573559444713</v>
+        <v>43.186335432353779</v>
       </c>
       <c r="O49">
-        <v>25.54170589514154</v>
+        <v>26.36863437078841</v>
       </c>
       <c r="P49">
-        <v>20.381569415787862</v>
+        <v>22.215221330001839</v>
       </c>
       <c r="Q49">
-        <v>19.523834418874049</v>
+        <v>21.072043182731559</v>
       </c>
       <c r="R49">
-        <v>19.112489729443109</v>
+        <v>21.010505144382659</v>
       </c>
       <c r="S49">
-        <v>27.241728286827669</v>
+        <v>27.893196607352191</v>
       </c>
       <c r="T49">
-        <v>14.740238106555511</v>
+        <v>13.3802932537369</v>
       </c>
       <c r="U49">
-        <v>33.8064077038633</v>
+        <v>32.259201847570267</v>
       </c>
       <c r="V49">
-        <v>38.242331887277373</v>
+        <v>32.832574782759721</v>
       </c>
       <c r="W49">
-        <v>17.718915725881381</v>
+        <v>18.122288702517022</v>
       </c>
       <c r="X49">
-        <v>14.897011338339549</v>
+        <v>17.09077880101022</v>
       </c>
       <c r="Y49">
-        <v>37.451932137651653</v>
+        <v>34.223889711195</v>
       </c>
       <c r="Z49">
-        <v>15.21256041487454</v>
+        <v>14.792359272948509</v>
       </c>
       <c r="AA49">
-        <v>16.696668786509498</v>
+        <v>18.8423536813285</v>
       </c>
       <c r="AB49">
-        <v>17.766928314060511</v>
-      </c>
-      <c r="AC49">
-        <v>13.912502545666079</v>
-      </c>
-      <c r="AD49">
-        <v>170.39975913360041</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+        <v>18.738617370726029</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -5167,91 +5022,85 @@
         <v>41</v>
       </c>
       <c r="C50">
-        <v>9.6594428584547334</v>
+        <v>9.0038797382074254</v>
       </c>
       <c r="D50">
-        <v>27.702842701456319</v>
+        <v>26.23446804393156</v>
       </c>
       <c r="E50">
-        <v>21.495394105864591</v>
+        <v>20.236143762909471</v>
       </c>
       <c r="F50">
-        <v>22.707727590163358</v>
+        <v>20.773911865543528</v>
       </c>
       <c r="G50">
-        <v>33.145080087539803</v>
+        <v>28.356201366675261</v>
       </c>
       <c r="H50">
-        <v>51.814660077916322</v>
+        <v>48.514840994093397</v>
       </c>
       <c r="I50">
-        <v>24.074712349220849</v>
+        <v>21.891623269349981</v>
       </c>
       <c r="J50">
-        <v>14.49496248830846</v>
+        <v>14.665582039431159</v>
       </c>
       <c r="K50">
-        <v>22.394212031921128</v>
+        <v>20.062855011239701</v>
       </c>
       <c r="L50">
-        <v>22.346582955198311</v>
+        <v>21.355785185253769</v>
       </c>
       <c r="M50">
-        <v>27.4386361836583</v>
+        <v>25.32242033284707</v>
       </c>
       <c r="N50">
-        <v>45.436660426098321</v>
+        <v>45.075573559444713</v>
       </c>
       <c r="O50">
-        <v>28.964796964820561</v>
+        <v>25.54170589514154</v>
       </c>
       <c r="P50">
-        <v>18.596588281045481</v>
+        <v>20.381569415787862</v>
       </c>
       <c r="Q50">
-        <v>21.945443160937529</v>
+        <v>19.523834418874049</v>
       </c>
       <c r="R50">
-        <v>19.8557933312931</v>
+        <v>19.112489729443109</v>
       </c>
       <c r="S50">
-        <v>28.59190457681219</v>
+        <v>27.241728286827669</v>
       </c>
       <c r="T50">
-        <v>17.079203053377821</v>
+        <v>14.740238106555511</v>
       </c>
       <c r="U50">
-        <v>38.369825549158527</v>
+        <v>33.8064077038633</v>
       </c>
       <c r="V50">
-        <v>39.881821460474839</v>
+        <v>38.242331887277373</v>
       </c>
       <c r="W50">
-        <v>18.888075357938611</v>
+        <v>17.718915725881381</v>
       </c>
       <c r="X50">
-        <v>15.40939807214799</v>
+        <v>14.897011338339549</v>
       </c>
       <c r="Y50">
-        <v>39.012999599812908</v>
+        <v>37.451932137651653</v>
       </c>
       <c r="Z50">
-        <v>15.895139191476821</v>
+        <v>15.21256041487454</v>
       </c>
       <c r="AA50">
-        <v>19.717485519601269</v>
+        <v>16.696668786509498</v>
       </c>
       <c r="AB50">
-        <v>19.326489967358651</v>
-      </c>
-      <c r="AC50">
-        <v>13.75574418597577</v>
-      </c>
-      <c r="AD50">
-        <v>182.6687157772493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+        <v>17.766928314060511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -5259,91 +5108,85 @@
         <v>40</v>
       </c>
       <c r="C51">
-        <v>7.2496965999304166</v>
+        <v>9.6594428584547334</v>
       </c>
       <c r="D51">
-        <v>24.79432979053707</v>
+        <v>27.702842701456319</v>
       </c>
       <c r="E51">
-        <v>18.554418113714789</v>
+        <v>21.495394105864591</v>
       </c>
       <c r="F51">
-        <v>20.931528354167298</v>
+        <v>22.707727590163358</v>
       </c>
       <c r="G51">
-        <v>22.006316090152499</v>
+        <v>33.145080087539803</v>
       </c>
       <c r="H51">
-        <v>41.878896373025171</v>
+        <v>51.814660077916322</v>
       </c>
       <c r="I51">
-        <v>19.762954969411091</v>
+        <v>24.074712349220849</v>
       </c>
       <c r="J51">
-        <v>13.050332093216999</v>
+        <v>14.49496248830846</v>
       </c>
       <c r="K51">
-        <v>19.81374572589381</v>
+        <v>22.394212031921128</v>
       </c>
       <c r="L51">
-        <v>22.964631684638139</v>
+        <v>22.346582955198311</v>
       </c>
       <c r="M51">
-        <v>25.275891983417718</v>
+        <v>27.4386361836583</v>
       </c>
       <c r="N51">
-        <v>36.290778800234762</v>
+        <v>45.436660426098321</v>
       </c>
       <c r="O51">
-        <v>23.81000116162031</v>
+        <v>28.964796964820561</v>
       </c>
       <c r="P51">
-        <v>17.68267147372131</v>
+        <v>18.596588281045481</v>
       </c>
       <c r="Q51">
-        <v>20.320740510068671</v>
+        <v>21.945443160937529</v>
       </c>
       <c r="R51">
-        <v>16.700137084900579</v>
+        <v>19.8557933312931</v>
       </c>
       <c r="S51">
-        <v>30.015034508798749</v>
+        <v>28.59190457681219</v>
       </c>
       <c r="T51">
-        <v>18.485430141417961</v>
+        <v>17.079203053377821</v>
       </c>
       <c r="U51">
-        <v>33.628884873936208</v>
+        <v>38.369825549158527</v>
       </c>
       <c r="V51">
-        <v>34.608850528137523</v>
+        <v>39.881821460474839</v>
       </c>
       <c r="W51">
-        <v>21.269828768346521</v>
+        <v>18.888075357938611</v>
       </c>
       <c r="X51">
-        <v>14.25330827578412</v>
+        <v>15.40939807214799</v>
       </c>
       <c r="Y51">
-        <v>35.479733646378698</v>
+        <v>39.012999599812908</v>
       </c>
       <c r="Z51">
-        <v>16.623576551302421</v>
+        <v>15.895139191476821</v>
       </c>
       <c r="AA51">
-        <v>18.093157346908551</v>
+        <v>19.717485519601269</v>
       </c>
       <c r="AB51">
-        <v>19.198660796472129</v>
-      </c>
-      <c r="AC51">
-        <v>9.5886635391942203</v>
-      </c>
-      <c r="AD51">
-        <v>148.06876649300079</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+        <v>19.326489967358651</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -5351,91 +5194,85 @@
         <v>39</v>
       </c>
       <c r="C52">
-        <v>8.8812784798637274</v>
+        <v>7.2496965999304166</v>
       </c>
       <c r="D52">
-        <v>26.29514813804991</v>
+        <v>24.79432979053707</v>
       </c>
       <c r="E52">
-        <v>20.46896945376292</v>
+        <v>18.554418113714789</v>
       </c>
       <c r="F52">
-        <v>19.713265665142892</v>
+        <v>20.931528354167298</v>
       </c>
       <c r="G52">
-        <v>25.399579163202869</v>
+        <v>22.006316090152499</v>
       </c>
       <c r="H52">
-        <v>47.654801165705898</v>
+        <v>41.878896373025171</v>
       </c>
       <c r="I52">
-        <v>20.063428111076341</v>
+        <v>19.762954969411091</v>
       </c>
       <c r="J52">
-        <v>14.52481975473955</v>
+        <v>13.050332093216999</v>
       </c>
       <c r="K52">
-        <v>24.022597627070919</v>
+        <v>19.81374572589381</v>
       </c>
       <c r="L52">
-        <v>22.36972477745007</v>
+        <v>22.964631684638139</v>
       </c>
       <c r="M52">
-        <v>24.540299133157131</v>
+        <v>25.275891983417718</v>
       </c>
       <c r="N52">
-        <v>38.433489376680143</v>
+        <v>36.290778800234762</v>
       </c>
       <c r="O52">
-        <v>27.676909068488939</v>
+        <v>23.81000116162031</v>
       </c>
       <c r="P52">
-        <v>19.447859550381569</v>
+        <v>17.68267147372131</v>
       </c>
       <c r="Q52">
-        <v>21.555479804155251</v>
+        <v>20.320740510068671</v>
       </c>
       <c r="R52">
-        <v>16.509184900021491</v>
+        <v>16.700137084900579</v>
       </c>
       <c r="S52">
-        <v>31.343055154545091</v>
+        <v>30.015034508798749</v>
       </c>
       <c r="T52">
-        <v>19.718388981977402</v>
+        <v>18.485430141417961</v>
       </c>
       <c r="U52">
-        <v>37.760063416977388</v>
+        <v>33.628884873936208</v>
       </c>
       <c r="V52">
-        <v>38.178943124212587</v>
+        <v>34.608850528137523</v>
       </c>
       <c r="W52">
-        <v>23.764930151350551</v>
+        <v>21.269828768346521</v>
       </c>
       <c r="X52">
-        <v>15.904994534854559</v>
+        <v>14.25330827578412</v>
       </c>
       <c r="Y52">
-        <v>33.501112654614687</v>
+        <v>35.479733646378698</v>
       </c>
       <c r="Z52">
-        <v>17.056954574239711</v>
+        <v>16.623576551302421</v>
       </c>
       <c r="AA52">
-        <v>16.191869318097531</v>
+        <v>18.093157346908551</v>
       </c>
       <c r="AB52">
-        <v>19.794415868777079</v>
-      </c>
-      <c r="AC52">
-        <v>10.78997419888405</v>
-      </c>
-      <c r="AD52">
-        <v>157.99242167532381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+        <v>19.198660796472129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -5443,91 +5280,85 @@
         <v>38</v>
       </c>
       <c r="C53">
-        <v>8.5911946474270753</v>
+        <v>8.8812784798637274</v>
       </c>
       <c r="D53">
-        <v>21.560587756021039</v>
+        <v>26.29514813804991</v>
       </c>
       <c r="E53">
-        <v>22.13425944773962</v>
+        <v>20.46896945376292</v>
       </c>
       <c r="F53">
-        <v>18.51212018048798</v>
+        <v>19.713265665142892</v>
       </c>
       <c r="G53">
-        <v>25.592859767040299</v>
+        <v>25.399579163202869</v>
       </c>
       <c r="H53">
-        <v>49.758850668930158</v>
+        <v>47.654801165705898</v>
       </c>
       <c r="I53">
-        <v>19.464035784880991</v>
+        <v>20.063428111076341</v>
       </c>
       <c r="J53">
-        <v>14.35278247187016</v>
+        <v>14.52481975473955</v>
       </c>
       <c r="K53">
-        <v>23.723429455314129</v>
+        <v>24.022597627070919</v>
       </c>
       <c r="L53">
-        <v>24.028342265002291</v>
+        <v>22.36972477745007</v>
       </c>
       <c r="M53">
-        <v>29.908688167488378</v>
+        <v>24.540299133157131</v>
       </c>
       <c r="N53">
-        <v>39.868945922452369</v>
+        <v>38.433489376680143</v>
       </c>
       <c r="O53">
-        <v>29.468843644845631</v>
+        <v>27.676909068488939</v>
       </c>
       <c r="P53">
-        <v>16.52612456580146</v>
+        <v>19.447859550381569</v>
       </c>
       <c r="Q53">
-        <v>20.925236915375489</v>
+        <v>21.555479804155251</v>
       </c>
       <c r="R53">
-        <v>17.394532142236141</v>
+        <v>16.509184900021491</v>
       </c>
       <c r="S53">
-        <v>33.521500133229523</v>
+        <v>31.343055154545091</v>
       </c>
       <c r="T53">
-        <v>19.577502638023748</v>
+        <v>19.718388981977402</v>
       </c>
       <c r="U53">
-        <v>41.326498248850548</v>
+        <v>37.760063416977388</v>
       </c>
       <c r="V53">
-        <v>37.231362787663038</v>
+        <v>38.178943124212587</v>
       </c>
       <c r="W53">
-        <v>24.76998436412255</v>
+        <v>23.764930151350551</v>
       </c>
       <c r="X53">
-        <v>17.101462260284691</v>
+        <v>15.904994534854559</v>
       </c>
       <c r="Y53">
-        <v>31.647209455049278</v>
+        <v>33.501112654614687</v>
       </c>
       <c r="Z53">
-        <v>16.132601175289011</v>
+        <v>17.056954574239711</v>
       </c>
       <c r="AA53">
-        <v>13.594721255584201</v>
+        <v>16.191869318097531</v>
       </c>
       <c r="AB53">
-        <v>22.158586079659369</v>
-      </c>
-      <c r="AC53">
-        <v>11.414366648318749</v>
-      </c>
-      <c r="AD53">
-        <v>138.15067067666641</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+        <v>19.794415868777079</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -5535,91 +5366,85 @@
         <v>37</v>
       </c>
       <c r="C54">
-        <v>9.0479637485753841</v>
+        <v>8.5911946474270753</v>
       </c>
       <c r="D54">
-        <v>20.16156473381324</v>
+        <v>21.560587756021039</v>
       </c>
       <c r="E54">
-        <v>20.627517460977099</v>
+        <v>22.13425944773962</v>
       </c>
       <c r="F54">
-        <v>19.032477026275611</v>
+        <v>18.51212018048798</v>
       </c>
       <c r="G54">
-        <v>27.907459617447159</v>
+        <v>25.592859767040299</v>
       </c>
       <c r="H54">
-        <v>49.143602939754587</v>
+        <v>49.758850668930158</v>
       </c>
       <c r="I54">
-        <v>17.521404938517328</v>
+        <v>19.464035784880991</v>
       </c>
       <c r="J54">
-        <v>13.718181055442731</v>
+        <v>14.35278247187016</v>
       </c>
       <c r="K54">
-        <v>20.948022470861439</v>
+        <v>23.723429455314129</v>
       </c>
       <c r="L54">
-        <v>25.540497479856469</v>
+        <v>24.028342265002291</v>
       </c>
       <c r="M54">
-        <v>27.41683175280388</v>
+        <v>29.908688167488378</v>
       </c>
       <c r="N54">
-        <v>42.418387649120866</v>
+        <v>39.868945922452369</v>
       </c>
       <c r="O54">
-        <v>27.959082455786771</v>
+        <v>29.468843644845631</v>
       </c>
       <c r="P54">
-        <v>17.140333229030531</v>
+        <v>16.52612456580146</v>
       </c>
       <c r="Q54">
-        <v>19.191801046794829</v>
+        <v>20.925236915375489</v>
       </c>
       <c r="R54">
-        <v>17.796018896732079</v>
+        <v>17.394532142236141</v>
       </c>
       <c r="S54">
-        <v>34.167683347607209</v>
+        <v>33.521500133229523</v>
       </c>
       <c r="T54">
-        <v>19.400173352626009</v>
+        <v>19.577502638023748</v>
       </c>
       <c r="U54">
-        <v>41.62893300408944</v>
+        <v>41.326498248850548</v>
       </c>
       <c r="V54">
-        <v>40.564386718322218</v>
+        <v>37.231362787663038</v>
       </c>
       <c r="W54">
-        <v>27.960901968723441</v>
+        <v>24.76998436412255</v>
       </c>
       <c r="X54">
-        <v>17.059958717588412</v>
+        <v>17.101462260284691</v>
       </c>
       <c r="Y54">
-        <v>27.12753128824609</v>
+        <v>31.647209455049278</v>
       </c>
       <c r="Z54">
-        <v>16.75056440115296</v>
+        <v>16.132601175289011</v>
       </c>
       <c r="AA54">
-        <v>13.41897708087537</v>
+        <v>13.594721255584201</v>
       </c>
       <c r="AB54">
-        <v>23.638137611324641</v>
-      </c>
-      <c r="AC54">
-        <v>11.62728726672502</v>
-      </c>
-      <c r="AD54">
-        <v>127.72554369916141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+        <v>22.158586079659369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -5627,91 +5452,85 @@
         <v>36</v>
       </c>
       <c r="C55">
-        <v>8.3092260064529402</v>
+        <v>9.0479637485753841</v>
       </c>
       <c r="D55">
-        <v>21.511328319832529</v>
+        <v>20.16156473381324</v>
       </c>
       <c r="E55">
-        <v>21.201765107571671</v>
+        <v>20.627517460977099</v>
       </c>
       <c r="F55">
-        <v>23.146592477180889</v>
+        <v>19.032477026275611</v>
       </c>
       <c r="G55">
-        <v>34.668504215795068</v>
+        <v>27.907459617447159</v>
       </c>
       <c r="H55">
-        <v>44.594957259752867</v>
+        <v>49.143602939754587</v>
       </c>
       <c r="I55">
-        <v>19.878467137563899</v>
+        <v>17.521404938517328</v>
       </c>
       <c r="J55">
-        <v>14.021539183413131</v>
+        <v>13.718181055442731</v>
       </c>
       <c r="K55">
-        <v>19.968097987674589</v>
+        <v>20.948022470861439</v>
       </c>
       <c r="L55">
-        <v>25.888287698210188</v>
+        <v>25.540497479856469</v>
       </c>
       <c r="M55">
-        <v>30.071571742954848</v>
+        <v>27.41683175280388</v>
       </c>
       <c r="N55">
-        <v>38.456736870140787</v>
+        <v>42.418387649120866</v>
       </c>
       <c r="O55">
-        <v>28.759535726084039</v>
+        <v>27.959082455786771</v>
       </c>
       <c r="P55">
-        <v>19.224112384576198</v>
+        <v>17.140333229030531</v>
       </c>
       <c r="Q55">
-        <v>21.408376914516118</v>
+        <v>19.191801046794829</v>
       </c>
       <c r="R55">
-        <v>20.53697748602152</v>
+        <v>17.796018896732079</v>
       </c>
       <c r="S55">
-        <v>31.052676549614009</v>
+        <v>34.167683347607209</v>
       </c>
       <c r="T55">
-        <v>20.830888736778</v>
+        <v>19.400173352626009</v>
       </c>
       <c r="U55">
-        <v>46.307676490865163</v>
+        <v>41.62893300408944</v>
       </c>
       <c r="V55">
-        <v>42.843356321669127</v>
+        <v>40.564386718322218</v>
       </c>
       <c r="W55">
-        <v>28.278565127910419</v>
+        <v>27.960901968723441</v>
       </c>
       <c r="X55">
-        <v>15.557631559954791</v>
+        <v>17.059958717588412</v>
       </c>
       <c r="Y55">
-        <v>35.370824270062798</v>
+        <v>27.12753128824609</v>
       </c>
       <c r="Z55">
-        <v>16.79789730090118</v>
+        <v>16.75056440115296</v>
       </c>
       <c r="AA55">
-        <v>14.02501423623057</v>
+        <v>13.41897708087537</v>
       </c>
       <c r="AB55">
-        <v>23.574938650666191</v>
-      </c>
-      <c r="AC55">
-        <v>13.26707463461085</v>
-      </c>
-      <c r="AD55">
-        <v>131.86392345758321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+        <v>23.638137611324641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -5719,91 +5538,85 @@
         <v>35</v>
       </c>
       <c r="C56">
-        <v>6.868503074883491</v>
+        <v>8.3092260064529402</v>
       </c>
       <c r="D56">
-        <v>16.47153270253445</v>
+        <v>21.511328319832529</v>
       </c>
       <c r="E56">
-        <v>14.62875550167896</v>
+        <v>21.201765107571671</v>
       </c>
       <c r="F56">
-        <v>18.904353423223</v>
+        <v>23.146592477180889</v>
       </c>
       <c r="G56">
-        <v>29.205382340180879</v>
+        <v>34.668504215795068</v>
       </c>
       <c r="H56">
-        <v>21.052260382497909</v>
+        <v>44.594957259752867</v>
       </c>
       <c r="I56">
-        <v>15.309850481227929</v>
+        <v>19.878467137563899</v>
       </c>
       <c r="J56">
-        <v>8.542902746088096</v>
+        <v>14.021539183413131</v>
       </c>
       <c r="K56">
-        <v>16.097100051408329</v>
+        <v>19.968097987674589</v>
       </c>
       <c r="L56">
-        <v>20.571016177731451</v>
+        <v>25.888287698210188</v>
       </c>
       <c r="M56">
-        <v>19.601724800752031</v>
+        <v>30.071571742954848</v>
       </c>
       <c r="N56">
-        <v>31.627868147628948</v>
+        <v>38.456736870140787</v>
       </c>
       <c r="O56">
-        <v>21.090860100443209</v>
+        <v>28.759535726084039</v>
       </c>
       <c r="P56">
-        <v>16.80170250427545</v>
+        <v>19.224112384576198</v>
       </c>
       <c r="Q56">
-        <v>18.946834774345241</v>
+        <v>21.408376914516118</v>
       </c>
       <c r="R56">
-        <v>13.22389675095199</v>
+        <v>20.53697748602152</v>
       </c>
       <c r="S56">
-        <v>25.768303061851469</v>
+        <v>31.052676549614009</v>
       </c>
       <c r="T56">
-        <v>17.33011674787096</v>
+        <v>20.830888736778</v>
       </c>
       <c r="U56">
-        <v>44.967075586319801</v>
+        <v>46.307676490865163</v>
       </c>
       <c r="V56">
-        <v>34.49642278117642</v>
+        <v>42.843356321669127</v>
       </c>
       <c r="W56">
-        <v>24.691667240504909</v>
+        <v>28.278565127910419</v>
       </c>
       <c r="X56">
-        <v>11.08922829085895</v>
+        <v>15.557631559954791</v>
       </c>
       <c r="Y56">
-        <v>29.004037712814501</v>
+        <v>35.370824270062798</v>
       </c>
       <c r="Z56">
-        <v>14.400841838014079</v>
+        <v>16.79789730090118</v>
       </c>
       <c r="AA56">
-        <v>10.6545656857246</v>
+        <v>14.02501423623057</v>
       </c>
       <c r="AB56">
-        <v>22.44317166509051</v>
-      </c>
-      <c r="AC56">
-        <v>9.0637578167105239</v>
-      </c>
-      <c r="AD56">
-        <v>110.74319401700301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+        <v>23.574938650666191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -5811,91 +5624,85 @@
         <v>34</v>
       </c>
       <c r="C57">
-        <v>7.5313831108182994</v>
+        <v>6.868503074883491</v>
       </c>
       <c r="D57">
-        <v>18.854677171768181</v>
+        <v>16.47153270253445</v>
       </c>
       <c r="E57">
-        <v>16.485956251334809</v>
+        <v>14.62875550167896</v>
       </c>
       <c r="F57">
-        <v>21.495451250807658</v>
+        <v>18.904353423223</v>
       </c>
       <c r="G57">
-        <v>41.003735280232377</v>
+        <v>29.205382340180879</v>
       </c>
       <c r="H57">
-        <v>28.32560858147777</v>
+        <v>21.052260382497909</v>
       </c>
       <c r="I57">
-        <v>16.741652866214579</v>
+        <v>15.309850481227929</v>
       </c>
       <c r="J57">
-        <v>11.16337336020309</v>
+        <v>8.542902746088096</v>
       </c>
       <c r="K57">
-        <v>18.895053784764961</v>
+        <v>16.097100051408329</v>
       </c>
       <c r="L57">
-        <v>20.998715925069899</v>
+        <v>20.571016177731451</v>
       </c>
       <c r="M57">
-        <v>22.64027061373595</v>
+        <v>19.601724800752031</v>
       </c>
       <c r="N57">
-        <v>41.400852116145018</v>
+        <v>31.627868147628948</v>
       </c>
       <c r="O57">
-        <v>22.624971927665531</v>
+        <v>21.090860100443209</v>
       </c>
       <c r="P57">
-        <v>18.241889620565459</v>
+        <v>16.80170250427545</v>
       </c>
       <c r="Q57">
-        <v>20.274480035030791</v>
+        <v>18.946834774345241</v>
       </c>
       <c r="R57">
-        <v>13.72857836703127</v>
+        <v>13.22389675095199</v>
       </c>
       <c r="S57">
-        <v>29.090513679502561</v>
+        <v>25.768303061851469</v>
       </c>
       <c r="T57">
-        <v>17.297020528850702</v>
+        <v>17.33011674787096</v>
       </c>
       <c r="U57">
-        <v>56.710267048234783</v>
+        <v>44.967075586319801</v>
       </c>
       <c r="V57">
-        <v>42.397791347089751</v>
+        <v>34.49642278117642</v>
       </c>
       <c r="W57">
-        <v>26.680913220269979</v>
+        <v>24.691667240504909</v>
       </c>
       <c r="X57">
-        <v>13.013901736879101</v>
+        <v>11.08922829085895</v>
       </c>
       <c r="Y57">
-        <v>32.121132171696203</v>
+        <v>29.004037712814501</v>
       </c>
       <c r="Z57">
-        <v>14.60074003917733</v>
+        <v>14.400841838014079</v>
       </c>
       <c r="AA57">
-        <v>9.8322471825216144</v>
+        <v>10.6545656857246</v>
       </c>
       <c r="AB57">
-        <v>23.624101984084511</v>
-      </c>
-      <c r="AC57">
-        <v>11.248494938455369</v>
-      </c>
-      <c r="AD57">
-        <v>137.8377836270169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+        <v>22.44317166509051</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -5903,91 +5710,85 @@
         <v>33</v>
       </c>
       <c r="C58">
-        <v>7.5526003599785554</v>
+        <v>7.5313831108182994</v>
       </c>
       <c r="D58">
-        <v>19.03809420781452</v>
+        <v>18.854677171768181</v>
       </c>
       <c r="E58">
-        <v>17.12799295116244</v>
+        <v>16.485956251334809</v>
       </c>
       <c r="F58">
-        <v>22.38666515099429</v>
+        <v>21.495451250807658</v>
       </c>
       <c r="G58">
-        <v>50.375179673400439</v>
+        <v>41.003735280232377</v>
       </c>
       <c r="H58">
-        <v>26.394930372342621</v>
+        <v>28.32560858147777</v>
       </c>
       <c r="I58">
-        <v>19.580140424948421</v>
+        <v>16.741652866214579</v>
       </c>
       <c r="J58">
-        <v>9.1623207415846935</v>
+        <v>11.16337336020309</v>
       </c>
       <c r="K58">
-        <v>15.62531746801073</v>
+        <v>18.895053784764961</v>
       </c>
       <c r="L58">
-        <v>22.979552848093231</v>
+        <v>20.998715925069899</v>
       </c>
       <c r="M58">
-        <v>25.31780160459088</v>
+        <v>22.64027061373595</v>
       </c>
       <c r="N58">
-        <v>43.221128326143251</v>
+        <v>41.400852116145018</v>
       </c>
       <c r="O58">
-        <v>25.200473087073998</v>
+        <v>22.624971927665531</v>
       </c>
       <c r="P58">
-        <v>15.408681585817259</v>
+        <v>18.241889620565459</v>
       </c>
       <c r="Q58">
-        <v>21.03848903836484</v>
+        <v>20.274480035030791</v>
       </c>
       <c r="R58">
-        <v>13.5801079783018</v>
+        <v>13.72857836703127</v>
       </c>
       <c r="S58">
-        <v>33.921070619698391</v>
+        <v>29.090513679502561</v>
       </c>
       <c r="T58">
-        <v>18.06969460590738</v>
+        <v>17.297020528850702</v>
       </c>
       <c r="U58">
-        <v>56.369397416510381</v>
+        <v>56.710267048234783</v>
       </c>
       <c r="V58">
-        <v>52.384040269254207</v>
+        <v>42.397791347089751</v>
       </c>
       <c r="W58">
-        <v>30.43949677669892</v>
+        <v>26.680913220269979</v>
       </c>
       <c r="X58">
-        <v>12.09577674724439</v>
+        <v>13.013901736879101</v>
       </c>
       <c r="Y58">
-        <v>32.86621188497211</v>
+        <v>32.121132171696203</v>
       </c>
       <c r="Z58">
-        <v>15.370199190203151</v>
+        <v>14.60074003917733</v>
       </c>
       <c r="AA58">
-        <v>8.1702042295072026</v>
+        <v>9.8322471825216144</v>
       </c>
       <c r="AB58">
-        <v>27.11696685038693</v>
-      </c>
-      <c r="AC58">
-        <v>10.95162243219754</v>
-      </c>
-      <c r="AD58">
-        <v>166.67877602554441</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+        <v>23.624101984084511</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -5995,91 +5796,85 @@
         <v>32</v>
       </c>
       <c r="C59">
-        <v>7.9584510427745867</v>
+        <v>7.5526003599785554</v>
       </c>
       <c r="D59">
-        <v>20.54947783852543</v>
+        <v>19.03809420781452</v>
       </c>
       <c r="E59">
-        <v>20.418316674313079</v>
+        <v>17.12799295116244</v>
       </c>
       <c r="F59">
-        <v>19.814530742994009</v>
+        <v>22.38666515099429</v>
       </c>
       <c r="G59">
-        <v>54.351526726949167</v>
+        <v>50.375179673400439</v>
       </c>
       <c r="H59">
-        <v>46.445886843404061</v>
+        <v>26.394930372342621</v>
       </c>
       <c r="I59">
-        <v>23.76118023510093</v>
+        <v>19.580140424948421</v>
       </c>
       <c r="J59">
-        <v>11.15122828275301</v>
+        <v>9.1623207415846935</v>
       </c>
       <c r="K59">
-        <v>17.55676784779223</v>
+        <v>15.62531746801073</v>
       </c>
       <c r="L59">
-        <v>25.456651078282359</v>
+        <v>22.979552848093231</v>
       </c>
       <c r="M59">
-        <v>37.503047987970326</v>
+        <v>25.31780160459088</v>
       </c>
       <c r="N59">
-        <v>39.718818824501817</v>
+        <v>43.221128326143251</v>
       </c>
       <c r="O59">
-        <v>32.030733056659528</v>
+        <v>25.200473087073998</v>
       </c>
       <c r="P59">
-        <v>14.46224412126659</v>
+        <v>15.408681585817259</v>
       </c>
       <c r="Q59">
-        <v>22.025290076030132</v>
+        <v>21.03848903836484</v>
       </c>
       <c r="R59">
-        <v>17.311452718059531</v>
+        <v>13.5801079783018</v>
       </c>
       <c r="S59">
-        <v>32.973870123407643</v>
+        <v>33.921070619698391</v>
       </c>
       <c r="T59">
-        <v>17.696608546359339</v>
+        <v>18.06969460590738</v>
       </c>
       <c r="U59">
-        <v>57.838225972266208</v>
+        <v>56.369397416510381</v>
       </c>
       <c r="V59">
-        <v>57.794850705673099</v>
+        <v>52.384040269254207</v>
       </c>
       <c r="W59">
-        <v>30.252953886368779</v>
+        <v>30.43949677669892</v>
       </c>
       <c r="X59">
-        <v>15.22863804564855</v>
+        <v>12.09577674724439</v>
       </c>
       <c r="Y59">
-        <v>36.452004152722807</v>
+        <v>32.86621188497211</v>
       </c>
       <c r="Z59">
-        <v>14.948395497982689</v>
+        <v>15.370199190203151</v>
       </c>
       <c r="AA59">
-        <v>8.9657092975401707</v>
+        <v>8.1702042295072026</v>
       </c>
       <c r="AB59">
-        <v>27.772483254960399</v>
-      </c>
-      <c r="AC59">
-        <v>13.79093810907033</v>
-      </c>
-      <c r="AD59">
-        <v>132.97860934257221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+        <v>27.11696685038693</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -6087,91 +5882,85 @@
         <v>31</v>
       </c>
       <c r="C60">
-        <v>8.3440405361361609</v>
+        <v>7.9584510427745867</v>
       </c>
       <c r="D60">
-        <v>22.02061666204451</v>
+        <v>20.54947783852543</v>
       </c>
       <c r="E60">
-        <v>22.88388987638664</v>
+        <v>20.418316674313079</v>
       </c>
       <c r="F60">
-        <v>20.715316630174861</v>
+        <v>19.814530742994009</v>
       </c>
       <c r="G60">
-        <v>46.951302276779877</v>
+        <v>54.351526726949167</v>
       </c>
       <c r="H60">
-        <v>57.353137564708398</v>
+        <v>46.445886843404061</v>
       </c>
       <c r="I60">
-        <v>29.504552708134209</v>
+        <v>23.76118023510093</v>
       </c>
       <c r="J60">
-        <v>14.11329853392834</v>
+        <v>11.15122828275301</v>
       </c>
       <c r="K60">
-        <v>19.683271569609449</v>
+        <v>17.55676784779223</v>
       </c>
       <c r="L60">
-        <v>24.016980754022271</v>
+        <v>25.456651078282359</v>
       </c>
       <c r="M60">
-        <v>37.934789723386842</v>
+        <v>37.503047987970326</v>
       </c>
       <c r="N60">
-        <v>43.465053620016278</v>
+        <v>39.718818824501817</v>
       </c>
       <c r="O60">
-        <v>31.733338667128141</v>
+        <v>32.030733056659528</v>
       </c>
       <c r="P60">
-        <v>17.89866606732237</v>
+        <v>14.46224412126659</v>
       </c>
       <c r="Q60">
-        <v>22.314425658015399</v>
+        <v>22.025290076030132</v>
       </c>
       <c r="R60">
-        <v>19.610733185862951</v>
+        <v>17.311452718059531</v>
       </c>
       <c r="S60">
-        <v>33.587733862359713</v>
+        <v>32.973870123407643</v>
       </c>
       <c r="T60">
-        <v>16.31350860304423</v>
+        <v>17.696608546359339</v>
       </c>
       <c r="U60">
-        <v>58.456516356301321</v>
+        <v>57.838225972266208</v>
       </c>
       <c r="V60">
-        <v>52.171632234404527</v>
+        <v>57.794850705673099</v>
       </c>
       <c r="W60">
-        <v>28.881412225371449</v>
+        <v>30.252953886368779</v>
       </c>
       <c r="X60">
-        <v>15.96214990002014</v>
+        <v>15.22863804564855</v>
       </c>
       <c r="Y60">
-        <v>36.587449922491217</v>
+        <v>36.452004152722807</v>
       </c>
       <c r="Z60">
-        <v>14.297403223624601</v>
+        <v>14.948395497982689</v>
       </c>
       <c r="AA60">
-        <v>12.01727575551436</v>
+        <v>8.9657092975401707</v>
       </c>
       <c r="AB60">
-        <v>25.83156482071152</v>
-      </c>
-      <c r="AC60">
-        <v>15.48273238082176</v>
-      </c>
-      <c r="AD60">
-        <v>117.9524790646893</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+        <v>27.772483254960399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -6179,91 +5968,85 @@
         <v>30</v>
       </c>
       <c r="C61">
-        <v>9.0283098196691913</v>
+        <v>8.3440405361361609</v>
       </c>
       <c r="D61">
-        <v>21.968326367963328</v>
+        <v>22.02061666204451</v>
       </c>
       <c r="E61">
-        <v>25.454885156315811</v>
+        <v>22.88388987638664</v>
       </c>
       <c r="F61">
-        <v>19.355645033335069</v>
+        <v>20.715316630174861</v>
       </c>
       <c r="G61">
-        <v>49.529759130502299</v>
+        <v>46.951302276779877</v>
       </c>
       <c r="H61">
-        <v>53.89265078795011</v>
+        <v>57.353137564708398</v>
       </c>
       <c r="I61">
-        <v>26.741965323172</v>
+        <v>29.504552708134209</v>
       </c>
       <c r="J61">
-        <v>14.301623333400119</v>
+        <v>14.11329853392834</v>
       </c>
       <c r="K61">
-        <v>19.4339813346824</v>
+        <v>19.683271569609449</v>
       </c>
       <c r="L61">
-        <v>24.068350264955079</v>
+        <v>24.016980754022271</v>
       </c>
       <c r="M61">
-        <v>35.088181688352861</v>
+        <v>37.934789723386842</v>
       </c>
       <c r="N61">
-        <v>42.352099623650723</v>
+        <v>43.465053620016278</v>
       </c>
       <c r="O61">
-        <v>30.912802415949631</v>
+        <v>31.733338667128141</v>
       </c>
       <c r="P61">
-        <v>15.04795486226017</v>
+        <v>17.89866606732237</v>
       </c>
       <c r="Q61">
-        <v>21.53821644523946</v>
+        <v>22.314425658015399</v>
       </c>
       <c r="R61">
-        <v>18.997114342691731</v>
+        <v>19.610733185862951</v>
       </c>
       <c r="S61">
-        <v>33.382131415090612</v>
+        <v>33.587733862359713</v>
       </c>
       <c r="T61">
-        <v>16.76533913896106</v>
+        <v>16.31350860304423</v>
       </c>
       <c r="U61">
-        <v>63.427279017172737</v>
+        <v>58.456516356301321</v>
       </c>
       <c r="V61">
-        <v>57.895463405572237</v>
+        <v>52.171632234404527</v>
       </c>
       <c r="W61">
-        <v>27.983414837527441</v>
+        <v>28.881412225371449</v>
       </c>
       <c r="X61">
-        <v>14.79436742358638</v>
+        <v>15.96214990002014</v>
       </c>
       <c r="Y61">
-        <v>37.210400846965527</v>
+        <v>36.587449922491217</v>
       </c>
       <c r="Z61">
-        <v>13.21378736256643</v>
+        <v>14.297403223624601</v>
       </c>
       <c r="AA61">
-        <v>11.08560598254221</v>
+        <v>12.01727575551436</v>
       </c>
       <c r="AB61">
-        <v>25.900393297705609</v>
-      </c>
-      <c r="AC61">
-        <v>16.542051936858961</v>
-      </c>
-      <c r="AD61">
-        <v>124.94320073717211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+        <v>25.83156482071152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -6271,91 +6054,85 @@
         <v>29</v>
       </c>
       <c r="C62">
-        <v>8.5598253708977978</v>
+        <v>9.0283098196691913</v>
       </c>
       <c r="D62">
-        <v>19.08839870838435</v>
+        <v>21.968326367963328</v>
       </c>
       <c r="E62">
-        <v>25.169713014607382</v>
+        <v>25.454885156315811</v>
       </c>
       <c r="F62">
-        <v>16.342450283234388</v>
+        <v>19.355645033335069</v>
       </c>
       <c r="G62">
-        <v>49.041982104540459</v>
+        <v>49.529759130502299</v>
       </c>
       <c r="H62">
-        <v>51.733728477217007</v>
+        <v>53.89265078795011</v>
       </c>
       <c r="I62">
-        <v>23.196821149348249</v>
+        <v>26.741965323172</v>
       </c>
       <c r="J62">
-        <v>14.058694142080491</v>
+        <v>14.301623333400119</v>
       </c>
       <c r="K62">
-        <v>19.515536240534171</v>
+        <v>19.4339813346824</v>
       </c>
       <c r="L62">
-        <v>23.09477712045372</v>
+        <v>24.068350264955079</v>
       </c>
       <c r="M62">
-        <v>33.543699111559143</v>
+        <v>35.088181688352861</v>
       </c>
       <c r="N62">
-        <v>41.285559724022463</v>
+        <v>42.352099623650723</v>
       </c>
       <c r="O62">
-        <v>29.34864054391365</v>
+        <v>30.912802415949631</v>
       </c>
       <c r="P62">
-        <v>13.806514640487229</v>
+        <v>15.04795486226017</v>
       </c>
       <c r="Q62">
-        <v>20.619472722695651</v>
+        <v>21.53821644523946</v>
       </c>
       <c r="R62">
-        <v>19.219177854961139</v>
+        <v>18.997114342691731</v>
       </c>
       <c r="S62">
-        <v>34.022225949120788</v>
+        <v>33.382131415090612</v>
       </c>
       <c r="T62">
-        <v>15.830227888598809</v>
+        <v>16.76533913896106</v>
       </c>
       <c r="U62">
-        <v>63.254552327571488</v>
+        <v>63.427279017172737</v>
       </c>
       <c r="V62">
-        <v>52.448593053969702</v>
+        <v>57.895463405572237</v>
       </c>
       <c r="W62">
-        <v>28.503576204831351</v>
+        <v>27.983414837527441</v>
       </c>
       <c r="X62">
-        <v>14.64276014383818</v>
+        <v>14.79436742358638</v>
       </c>
       <c r="Y62">
-        <v>34.963700136914809</v>
+        <v>37.210400846965527</v>
       </c>
       <c r="Z62">
-        <v>12.4036610790466</v>
+        <v>13.21378736256643</v>
       </c>
       <c r="AA62">
-        <v>9.7219983890728141</v>
+        <v>11.08560598254221</v>
       </c>
       <c r="AB62">
-        <v>25.14383492938741</v>
-      </c>
-      <c r="AC62">
-        <v>15.26860915935938</v>
-      </c>
-      <c r="AD62">
-        <v>128.40725611912839</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+        <v>25.900393297705609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -6363,91 +6140,85 @@
         <v>28</v>
       </c>
       <c r="C63">
-        <v>8.6178711317252574</v>
+        <v>8.5598253708977978</v>
       </c>
       <c r="D63">
-        <v>18.887601705524201</v>
+        <v>19.08839870838435</v>
       </c>
       <c r="E63">
-        <v>23.85453913847671</v>
+        <v>25.169713014607382</v>
       </c>
       <c r="F63">
-        <v>16.64999056244433</v>
+        <v>16.342450283234388</v>
       </c>
       <c r="G63">
-        <v>57.626822503586119</v>
+        <v>49.041982104540459</v>
       </c>
       <c r="H63">
-        <v>59.383578469550052</v>
+        <v>51.733728477217007</v>
       </c>
       <c r="I63">
-        <v>24.630662265578689</v>
+        <v>23.196821149348249</v>
       </c>
       <c r="J63">
-        <v>16.138118304894341</v>
+        <v>14.058694142080491</v>
       </c>
       <c r="K63">
-        <v>22.129417438657981</v>
+        <v>19.515536240534171</v>
       </c>
       <c r="L63">
-        <v>25.690650009974021</v>
+        <v>23.09477712045372</v>
       </c>
       <c r="M63">
-        <v>30.430444095463479</v>
+        <v>33.543699111559143</v>
       </c>
       <c r="N63">
-        <v>49.411597754227671</v>
+        <v>41.285559724022463</v>
       </c>
       <c r="O63">
-        <v>28.060352018247151</v>
+        <v>29.34864054391365</v>
       </c>
       <c r="P63">
-        <v>13.03080073557997</v>
+        <v>13.806514640487229</v>
       </c>
       <c r="Q63">
-        <v>21.293097397250651</v>
+        <v>20.619472722695651</v>
       </c>
       <c r="R63">
-        <v>17.835628876428281</v>
+        <v>19.219177854961139</v>
       </c>
       <c r="S63">
-        <v>36.916222876387877</v>
+        <v>34.022225949120788</v>
       </c>
       <c r="T63">
-        <v>15.69661574402712</v>
+        <v>15.830227888598809</v>
       </c>
       <c r="U63">
-        <v>71.839706060694368</v>
+        <v>63.254552327571488</v>
       </c>
       <c r="V63">
-        <v>58.144983091321798</v>
+        <v>52.448593053969702</v>
       </c>
       <c r="W63">
-        <v>32.617709068436959</v>
+        <v>28.503576204831351</v>
       </c>
       <c r="X63">
-        <v>14.36667176774815</v>
+        <v>14.64276014383818</v>
       </c>
       <c r="Y63">
-        <v>43.057600028643449</v>
+        <v>34.963700136914809</v>
       </c>
       <c r="Z63">
-        <v>11.56614258534227</v>
+        <v>12.4036610790466</v>
       </c>
       <c r="AA63">
-        <v>10.41334257514549</v>
+        <v>9.7219983890728141</v>
       </c>
       <c r="AB63">
-        <v>25.56701201384098</v>
-      </c>
-      <c r="AC63">
-        <v>14.703418296901249</v>
-      </c>
-      <c r="AD63">
-        <v>112.3149354217303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+        <v>25.14383492938741</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -6455,91 +6226,85 @@
         <v>27</v>
       </c>
       <c r="C64">
-        <v>8.2367807300187899</v>
+        <v>8.6178711317252574</v>
       </c>
       <c r="D64">
-        <v>15.255933344973441</v>
+        <v>18.887601705524201</v>
       </c>
       <c r="E64">
-        <v>25.931930030817181</v>
+        <v>23.85453913847671</v>
       </c>
       <c r="F64">
-        <v>17.08170977528869</v>
+        <v>16.64999056244433</v>
       </c>
       <c r="G64">
-        <v>53.325680174227031</v>
+        <v>57.626822503586119</v>
       </c>
       <c r="H64">
-        <v>62.417076405430073</v>
+        <v>59.383578469550052</v>
       </c>
       <c r="I64">
-        <v>25.769828426782301</v>
+        <v>24.630662265578689</v>
       </c>
       <c r="J64">
-        <v>21.89381574267987</v>
+        <v>16.138118304894341</v>
       </c>
       <c r="K64">
-        <v>18.72346148520608</v>
+        <v>22.129417438657981</v>
       </c>
       <c r="L64">
-        <v>26.00381925791957</v>
+        <v>25.690650009974021</v>
       </c>
       <c r="M64">
-        <v>26.10298890830423</v>
+        <v>30.430444095463479</v>
       </c>
       <c r="N64">
-        <v>33.558959815423613</v>
+        <v>49.411597754227671</v>
       </c>
       <c r="O64">
-        <v>25.20190079482111</v>
+        <v>28.060352018247151</v>
       </c>
       <c r="P64">
-        <v>12.09930265933885</v>
+        <v>13.03080073557997</v>
       </c>
       <c r="Q64">
-        <v>21.148880382801689</v>
+        <v>21.293097397250651</v>
       </c>
       <c r="R64">
-        <v>14.72459352855031</v>
+        <v>17.835628876428281</v>
       </c>
       <c r="S64">
-        <v>32.70005557808701</v>
+        <v>36.916222876387877</v>
       </c>
       <c r="T64">
-        <v>15.84527060336279</v>
+        <v>15.69661574402712</v>
       </c>
       <c r="U64">
-        <v>61.97865684733479</v>
+        <v>71.839706060694368</v>
       </c>
       <c r="V64">
-        <v>44.773880517772866</v>
+        <v>58.144983091321798</v>
       </c>
       <c r="W64">
-        <v>29.459482749614072</v>
+        <v>32.617709068436959</v>
       </c>
       <c r="X64">
-        <v>16.031301991773699</v>
+        <v>14.36667176774815</v>
       </c>
       <c r="Y64">
-        <v>41.090613187742854</v>
+        <v>43.057600028643449</v>
       </c>
       <c r="Z64">
-        <v>10.8528589994861</v>
+        <v>11.56614258534227</v>
       </c>
       <c r="AA64">
-        <v>8.5658982930135998</v>
+        <v>10.41334257514549</v>
       </c>
       <c r="AB64">
-        <v>25.638716808213658</v>
-      </c>
-      <c r="AC64">
-        <v>12.04106298891249</v>
-      </c>
-      <c r="AD64">
-        <v>88.338168914830092</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+        <v>25.56701201384098</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -6547,94 +6312,176 @@
         <v>26</v>
       </c>
       <c r="C65">
+        <v>8.2367807300187899</v>
+      </c>
+      <c r="D65">
+        <v>15.255933344973441</v>
+      </c>
+      <c r="E65">
+        <v>25.931930030817181</v>
+      </c>
+      <c r="F65">
+        <v>17.08170977528869</v>
+      </c>
+      <c r="G65">
+        <v>53.325680174227031</v>
+      </c>
+      <c r="H65">
+        <v>62.417076405430073</v>
+      </c>
+      <c r="I65">
+        <v>25.769828426782301</v>
+      </c>
+      <c r="J65">
+        <v>21.89381574267987</v>
+      </c>
+      <c r="K65">
+        <v>18.72346148520608</v>
+      </c>
+      <c r="L65">
+        <v>26.00381925791957</v>
+      </c>
+      <c r="M65">
+        <v>26.10298890830423</v>
+      </c>
+      <c r="N65">
+        <v>33.558959815423613</v>
+      </c>
+      <c r="O65">
+        <v>25.20190079482111</v>
+      </c>
+      <c r="P65">
+        <v>12.09930265933885</v>
+      </c>
+      <c r="Q65">
+        <v>21.148880382801689</v>
+      </c>
+      <c r="R65">
+        <v>14.72459352855031</v>
+      </c>
+      <c r="S65">
+        <v>32.70005557808701</v>
+      </c>
+      <c r="T65">
+        <v>15.84527060336279</v>
+      </c>
+      <c r="U65">
+        <v>61.97865684733479</v>
+      </c>
+      <c r="V65">
+        <v>44.773880517772866</v>
+      </c>
+      <c r="W65">
+        <v>29.459482749614072</v>
+      </c>
+      <c r="X65">
+        <v>16.031301991773699</v>
+      </c>
+      <c r="Y65">
+        <v>41.090613187742854</v>
+      </c>
+      <c r="Z65">
+        <v>10.8528589994861</v>
+      </c>
+      <c r="AA65">
+        <v>8.5658982930135998</v>
+      </c>
+      <c r="AB65">
+        <v>25.638716808213658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66">
         <v>8.7987413991626902</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>12.82376674561643</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>18.383171675795339</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <v>16.418088252420649</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <v>39.608580435357773</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <v>46.17255620171526</v>
       </c>
-      <c r="I65">
+      <c r="I66">
         <v>20.082150127680009</v>
       </c>
-      <c r="J65">
+      <c r="J66">
         <v>18.591567265747411</v>
       </c>
-      <c r="K65">
+      <c r="K66">
         <v>13.780048362926641</v>
       </c>
-      <c r="L65">
+      <c r="L66">
         <v>25.692905553532562</v>
       </c>
-      <c r="M65">
+      <c r="M66">
         <v>17.325424169409452</v>
       </c>
-      <c r="N65">
+      <c r="N66">
         <v>28.816462304994189</v>
       </c>
-      <c r="O65">
+      <c r="O66">
         <v>21.671651921400478</v>
       </c>
-      <c r="P65">
+      <c r="P66">
         <v>8.9479384370566084</v>
       </c>
-      <c r="Q65">
+      <c r="Q66">
         <v>20.3380944275719</v>
       </c>
-      <c r="R65">
+      <c r="R66">
         <v>11.637073425424941</v>
       </c>
-      <c r="S65">
+      <c r="S66">
         <v>31.33683311716608</v>
       </c>
-      <c r="T65">
+      <c r="T66">
         <v>16.920172361162241</v>
       </c>
-      <c r="U65">
+      <c r="U66">
         <v>48.796179548651381</v>
       </c>
-      <c r="V65">
+      <c r="V66">
         <v>32.445076922955813</v>
       </c>
-      <c r="W65">
+      <c r="W66">
         <v>26.822548879788179</v>
       </c>
-      <c r="X65">
+      <c r="X66">
         <v>14.28246911098458</v>
       </c>
-      <c r="Y65">
+      <c r="Y66">
         <v>38.958427887690533</v>
       </c>
-      <c r="Z65">
+      <c r="Z66">
         <v>10.38717047309285</v>
       </c>
-      <c r="AA65">
+      <c r="AA66">
         <v>7.0168379649849104</v>
       </c>
-      <c r="AB65">
+      <c r="AB66">
         <v>20.34612673067868</v>
-      </c>
-      <c r="AC65">
-        <v>10.3141036776146</v>
-      </c>
-      <c r="AD65">
-        <v>64.38085159315078</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A106">
     <sortCondition ref="A2:A106"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>